--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9753386216277309</v>
+        <v>0.9753386216277307</v>
       </c>
       <c r="D2">
-        <v>0.998775282833018</v>
+        <v>0.9987752828330178</v>
       </c>
       <c r="E2">
-        <v>0.9597070133028368</v>
+        <v>0.9597070133028366</v>
       </c>
       <c r="F2">
-        <v>0.9612737304121809</v>
+        <v>0.9612737304121807</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9717577761942593</v>
       </c>
       <c r="M2">
-        <v>0.9733003143705534</v>
+        <v>0.9733003143705533</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9836470206474701</v>
+        <v>0.9836470206474694</v>
       </c>
       <c r="D3">
-        <v>1.005132488911621</v>
+        <v>1.00513248891162</v>
       </c>
       <c r="E3">
-        <v>0.9665906718108523</v>
+        <v>0.966590671810852</v>
       </c>
       <c r="F3">
-        <v>0.9704943088034473</v>
+        <v>0.9704943088034468</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.004593633862663</v>
       </c>
       <c r="K3">
-        <v>1.015700117112533</v>
+        <v>1.015700117112532</v>
       </c>
       <c r="L3">
-        <v>0.9776696648491291</v>
+        <v>0.9776696648491287</v>
       </c>
       <c r="M3">
-        <v>0.9815191797872201</v>
+        <v>0.9815191797872196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9888297521880197</v>
+        <v>0.9888297521880185</v>
       </c>
       <c r="D4">
-        <v>1.009099059758169</v>
+        <v>1.009099059758168</v>
       </c>
       <c r="E4">
-        <v>0.970904316116227</v>
+        <v>0.9709043161162266</v>
       </c>
       <c r="F4">
-        <v>0.9762585509152866</v>
+        <v>0.9762585509152858</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040295388289747</v>
       </c>
       <c r="J4">
-        <v>1.008523575374869</v>
+        <v>1.008523575374868</v>
       </c>
       <c r="K4">
-        <v>1.019088893699407</v>
+        <v>1.019088893699406</v>
       </c>
       <c r="L4">
-        <v>0.9813670655556442</v>
+        <v>0.9813670655556439</v>
       </c>
       <c r="M4">
-        <v>0.9866522192740279</v>
+        <v>0.9866522192740271</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9909652703075308</v>
       </c>
       <c r="D5">
-        <v>1.010733543593247</v>
+        <v>1.010733543593246</v>
       </c>
       <c r="E5">
-        <v>0.9726862989128545</v>
+        <v>0.9726862989128544</v>
       </c>
       <c r="F5">
-        <v>0.9786367316231155</v>
+        <v>0.9786367316231152</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.010141203183577</v>
       </c>
       <c r="K5">
-        <v>1.020482732069293</v>
+        <v>1.020482732069292</v>
       </c>
       <c r="L5">
-        <v>0.9828927513579248</v>
+        <v>0.9828927513579245</v>
       </c>
       <c r="M5">
-        <v>0.9887687496014835</v>
+        <v>0.9887687496014832</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913213751590154</v>
+        <v>0.9913213751590149</v>
       </c>
       <c r="D6">
         <v>1.011006099561578</v>
@@ -582,7 +582,7 @@
         <v>0.972983715273109</v>
       </c>
       <c r="F6">
-        <v>0.9790334825149709</v>
+        <v>0.9790334825149707</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.041097036940051</v>
       </c>
       <c r="J6">
-        <v>1.010410846837546</v>
+        <v>1.010410846837545</v>
       </c>
       <c r="K6">
         <v>1.020715009717643</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888584535105275</v>
+        <v>0.9888584535105269</v>
       </c>
       <c r="D7">
         <v>1.009121027077355</v>
       </c>
       <c r="E7">
-        <v>0.9709282480123841</v>
+        <v>0.9709282480123835</v>
       </c>
       <c r="F7">
-        <v>0.9762905014430019</v>
+        <v>0.9762905014430016</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040304643364295</v>
       </c>
       <c r="J7">
-        <v>1.008545323035573</v>
+        <v>1.008545323035572</v>
       </c>
       <c r="K7">
         <v>1.019107636870797</v>
       </c>
       <c r="L7">
-        <v>0.9813875622007256</v>
+        <v>0.9813875622007248</v>
       </c>
       <c r="M7">
-        <v>0.9866806594919312</v>
+        <v>0.9866806594919306</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781884201250527</v>
+        <v>0.9781884201250515</v>
       </c>
       <c r="D8">
-        <v>1.00095550842691</v>
+        <v>1.000955508426909</v>
       </c>
       <c r="E8">
-        <v>0.9620638573952549</v>
+        <v>0.9620638573952539</v>
       </c>
       <c r="F8">
-        <v>0.9644337940748789</v>
+        <v>0.9644337940748779</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036833083086729</v>
+        <v>1.036833083086728</v>
       </c>
       <c r="J8">
-        <v>1.000448820623592</v>
+        <v>1.00044882062359</v>
       </c>
       <c r="K8">
-        <v>1.012122552281559</v>
+        <v>1.012122552281558</v>
       </c>
       <c r="L8">
-        <v>0.9737834579183849</v>
+        <v>0.9737834579183839</v>
       </c>
       <c r="M8">
-        <v>0.9761181031057701</v>
+        <v>0.9761181031057691</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9577524500204816</v>
+        <v>0.9577524500204823</v>
       </c>
       <c r="D9">
-        <v>0.9853328220926905</v>
+        <v>0.9853328220926909</v>
       </c>
       <c r="E9">
-        <v>0.9452564730906935</v>
+        <v>0.9452564730906933</v>
       </c>
       <c r="F9">
-        <v>0.9418251186738921</v>
+        <v>0.9418251186738924</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030039557363885</v>
       </c>
       <c r="J9">
-        <v>0.9848906544615069</v>
+        <v>0.9848906544615075</v>
       </c>
       <c r="K9">
-        <v>0.9986684325312998</v>
+        <v>0.9986684325313002</v>
       </c>
       <c r="L9">
-        <v>0.9593048971617831</v>
+        <v>0.9593048971617829</v>
       </c>
       <c r="M9">
-        <v>0.9559382601602369</v>
+        <v>0.9559382601602372</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9427794529021598</v>
+        <v>0.9427794529021593</v>
       </c>
       <c r="D10">
-        <v>0.9739113519791521</v>
+        <v>0.9739113519791514</v>
       </c>
       <c r="E10">
-        <v>0.9330731659796705</v>
+        <v>0.9330731659796703</v>
       </c>
       <c r="F10">
-        <v>0.9253242756267575</v>
+        <v>0.9253242756267571</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024970356649824</v>
       </c>
       <c r="J10">
-        <v>0.9734628353713745</v>
+        <v>0.9734628353713737</v>
       </c>
       <c r="K10">
-        <v>0.9887681816091549</v>
+        <v>0.988768181609154</v>
       </c>
       <c r="L10">
         <v>0.9487659436808178</v>
       </c>
       <c r="M10">
-        <v>0.9411867595632095</v>
+        <v>0.9411867595632092</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9359066078840538</v>
+        <v>0.9359066078840544</v>
       </c>
       <c r="D11">
-        <v>0.9686783040955121</v>
+        <v>0.9686783040955126</v>
       </c>
       <c r="E11">
-        <v>0.9275160234410181</v>
+        <v>0.9275160234410182</v>
       </c>
       <c r="F11">
-        <v>0.917764095688218</v>
+        <v>0.9177640956882185</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022623600367077</v>
+        <v>1.022623600367078</v>
       </c>
       <c r="J11">
-        <v>0.9682121703324301</v>
+        <v>0.9682121703324307</v>
       </c>
       <c r="K11">
-        <v>0.9842161034028742</v>
+        <v>0.9842161034028748</v>
       </c>
       <c r="L11">
         <v>0.9439478241290019</v>
       </c>
       <c r="M11">
-        <v>0.9344234623335534</v>
+        <v>0.934423462333554</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9332880098938433</v>
+        <v>0.9332880098938446</v>
       </c>
       <c r="D12">
-        <v>0.9666862860112722</v>
+        <v>0.9666862860112734</v>
       </c>
       <c r="E12">
-        <v>0.9254044135542376</v>
+        <v>0.9254044135542383</v>
       </c>
       <c r="F12">
-        <v>0.9148855849468081</v>
+        <v>0.914885584946809</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021726667398428</v>
       </c>
       <c r="J12">
-        <v>0.9662110363217659</v>
+        <v>0.9662110363217671</v>
       </c>
       <c r="K12">
-        <v>0.9824808193716018</v>
+        <v>0.9824808193716034</v>
       </c>
       <c r="L12">
-        <v>0.9421153131446601</v>
+        <v>0.9421153131446607</v>
       </c>
       <c r="M12">
-        <v>0.9318477671548169</v>
+        <v>0.9318477671548179</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9338528119232582</v>
+        <v>0.9338528119232579</v>
       </c>
       <c r="D13">
-        <v>0.9671158539328665</v>
+        <v>0.9671158539328661</v>
       </c>
       <c r="E13">
-        <v>0.9258595998332831</v>
+        <v>0.9258595998332833</v>
       </c>
       <c r="F13">
-        <v>0.9155063609804276</v>
+        <v>0.9155063609804269</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021920248840328</v>
       </c>
       <c r="J13">
-        <v>0.9666426822377032</v>
+        <v>0.9666426822377031</v>
       </c>
       <c r="K13">
-        <v>0.9828551374183376</v>
+        <v>0.9828551374183372</v>
       </c>
       <c r="L13">
-        <v>0.9425104143381309</v>
+        <v>0.9425104143381308</v>
       </c>
       <c r="M13">
-        <v>0.9324032633973098</v>
+        <v>0.9324032633973094</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.935691540707739</v>
+        <v>0.9356915407077416</v>
       </c>
       <c r="D14">
-        <v>0.9685146594953764</v>
+        <v>0.9685146594953786</v>
       </c>
       <c r="E14">
-        <v>0.9273424776744794</v>
+        <v>0.9273424776744805</v>
       </c>
       <c r="F14">
-        <v>0.9175276427764891</v>
+        <v>0.9175276427764912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022549990233202</v>
+        <v>1.022549990233204</v>
       </c>
       <c r="J14">
-        <v>0.9680478268854064</v>
+        <v>0.968047826885409</v>
       </c>
       <c r="K14">
-        <v>0.9840736003297025</v>
+        <v>0.9840736003297046</v>
       </c>
       <c r="L14">
-        <v>0.9437972516533724</v>
+        <v>0.9437972516533735</v>
       </c>
       <c r="M14">
-        <v>0.9342118953619869</v>
+        <v>0.9342118953619889</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368154963326953</v>
+        <v>0.936815496332695</v>
       </c>
       <c r="D15">
-        <v>0.9693699527849581</v>
+        <v>0.9693699527849577</v>
       </c>
       <c r="E15">
-        <v>0.928249673096883</v>
+        <v>0.9282496730968833</v>
       </c>
       <c r="F15">
-        <v>0.918763440539887</v>
+        <v>0.9187634405398872</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022934569320826</v>
       </c>
       <c r="J15">
-        <v>0.9689066737517538</v>
+        <v>0.9689066737517537</v>
       </c>
       <c r="K15">
-        <v>0.9848182955725453</v>
+        <v>0.9848182955725451</v>
       </c>
       <c r="L15">
-        <v>0.9445842861805465</v>
+        <v>0.9445842861805468</v>
       </c>
       <c r="M15">
-        <v>0.9353176057454947</v>
+        <v>0.9353176057454948</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432267892569415</v>
+        <v>0.9432267892569429</v>
       </c>
       <c r="D16">
-        <v>0.9742521846454535</v>
+        <v>0.9742521846454545</v>
       </c>
       <c r="E16">
-        <v>0.9334356231382821</v>
+        <v>0.9334356231382827</v>
       </c>
       <c r="F16">
-        <v>0.925816625748219</v>
+        <v>0.9258166257482201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025122706707249</v>
+        <v>1.02512270670725</v>
       </c>
       <c r="J16">
-        <v>0.9738044966320277</v>
+        <v>0.9738044966320291</v>
       </c>
       <c r="K16">
-        <v>0.9890643261883835</v>
+        <v>0.9890643261883846</v>
       </c>
       <c r="L16">
-        <v>0.9490799670340235</v>
+        <v>0.949079967034024</v>
       </c>
       <c r="M16">
-        <v>0.9416271262721925</v>
+        <v>0.9416271262721936</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471394559276216</v>
+        <v>0.9471394559276202</v>
       </c>
       <c r="D17">
-        <v>0.9772344191460755</v>
+        <v>0.9772344191460741</v>
       </c>
       <c r="E17">
-        <v>0.9366098680300898</v>
+        <v>0.9366098680300893</v>
       </c>
       <c r="F17">
-        <v>0.9301245602851328</v>
+        <v>0.9301245602851318</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026453040383931</v>
+        <v>1.02645304038393</v>
       </c>
       <c r="J17">
-        <v>0.9767923121352831</v>
+        <v>0.9767923121352819</v>
       </c>
       <c r="K17">
-        <v>0.9916537436570284</v>
+        <v>0.9916537436570271</v>
       </c>
       <c r="L17">
-        <v>0.951828806023283</v>
+        <v>0.9518288060232827</v>
       </c>
       <c r="M17">
-        <v>0.94547971249888</v>
+        <v>0.945479712498879</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9493846214059881</v>
+        <v>0.9493846214059879</v>
       </c>
       <c r="D18">
-        <v>0.9789465514970024</v>
+        <v>0.9789465514970023</v>
       </c>
       <c r="E18">
-        <v>0.9384345606089466</v>
+        <v>0.938434560608947</v>
       </c>
       <c r="F18">
-        <v>0.932597849081483</v>
+        <v>0.9325978490814835</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02721454445162</v>
       </c>
       <c r="J18">
-        <v>0.9785062913752347</v>
+        <v>0.9785062913752346</v>
       </c>
       <c r="K18">
         <v>0.9931388677454179</v>
       </c>
       <c r="L18">
-        <v>0.9534079318717794</v>
+        <v>0.9534079318717797</v>
       </c>
       <c r="M18">
-        <v>0.947691137718959</v>
+        <v>0.9476911377189593</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9501440832070349</v>
+        <v>0.950144083207033</v>
       </c>
       <c r="D19">
-        <v>0.9795258438600642</v>
+        <v>0.9795258438600626</v>
       </c>
       <c r="E19">
-        <v>0.9390523309964247</v>
+        <v>0.9390523309964238</v>
       </c>
       <c r="F19">
-        <v>0.9334347029649823</v>
+        <v>0.933434702964981</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027471812995602</v>
       </c>
       <c r="J19">
-        <v>0.9790859837841596</v>
+        <v>0.9790859837841578</v>
       </c>
       <c r="K19">
-        <v>0.9936411025697407</v>
+        <v>0.993641102569739</v>
       </c>
       <c r="L19">
-        <v>0.9539423906182768</v>
+        <v>0.953942390618276</v>
       </c>
       <c r="M19">
-        <v>0.9484393115397088</v>
+        <v>0.9484393115397074</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9467235417433327</v>
+        <v>0.9467235417433328</v>
       </c>
       <c r="D20">
         <v>0.9769173166897746</v>
       </c>
       <c r="E20">
-        <v>0.9362721069001447</v>
+        <v>0.9362721069001448</v>
       </c>
       <c r="F20">
-        <v>0.9296664937753466</v>
+        <v>0.929666493775347</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026311819849838</v>
       </c>
       <c r="J20">
-        <v>0.9764747587979886</v>
+        <v>0.9764747587979888</v>
       </c>
       <c r="K20">
-        <v>0.9913785649702729</v>
+        <v>0.9913785649702727</v>
       </c>
       <c r="L20">
         <v>0.9515364179871895</v>
       </c>
       <c r="M20">
-        <v>0.9450701084379295</v>
+        <v>0.9450701084379296</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9351519594557951</v>
+        <v>0.9351519594557939</v>
       </c>
       <c r="D21">
-        <v>0.9681041224958022</v>
+        <v>0.9681041224958011</v>
       </c>
       <c r="E21">
-        <v>0.926907162296169</v>
+        <v>0.9269071622961689</v>
       </c>
       <c r="F21">
-        <v>0.9169344379967538</v>
+        <v>0.9169344379967532</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022365265714182</v>
+        <v>1.022365265714181</v>
       </c>
       <c r="J21">
-        <v>0.9676354972562977</v>
+        <v>0.9676354972562968</v>
       </c>
       <c r="K21">
-        <v>0.9837160611271849</v>
+        <v>0.9837160611271839</v>
       </c>
       <c r="L21">
-        <v>0.9434195337854048</v>
+        <v>0.9434195337854047</v>
       </c>
       <c r="M21">
-        <v>0.9336811143778884</v>
+        <v>0.9336811143778879</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9274916356439258</v>
+        <v>0.9274916356439269</v>
       </c>
       <c r="D22">
-        <v>0.9622806724528958</v>
+        <v>0.9622806724528969</v>
       </c>
       <c r="E22">
-        <v>0.920741340058814</v>
+        <v>0.9207413400588146</v>
       </c>
       <c r="F22">
-        <v>0.9085173500573047</v>
+        <v>0.9085173500573056</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01973631286674</v>
+        <v>1.019736312866741</v>
       </c>
       <c r="J22">
-        <v>0.9617805531686822</v>
+        <v>0.9617805531686831</v>
       </c>
       <c r="K22">
-        <v>0.9786383116799031</v>
+        <v>0.9786383116799042</v>
       </c>
       <c r="L22">
-        <v>0.9380653252717225</v>
+        <v>0.938065325271723</v>
       </c>
       <c r="M22">
-        <v>0.9261484887542996</v>
+        <v>0.9261484887543004</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9315917600775869</v>
+        <v>0.9315917600775878</v>
       </c>
       <c r="D23">
-        <v>0.9653964761878011</v>
+        <v>0.9653964761878018</v>
       </c>
       <c r="E23">
-        <v>0.9240382396432711</v>
+        <v>0.9240382396432718</v>
       </c>
       <c r="F23">
-        <v>0.913021506955662</v>
+        <v>0.9130215069556629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021144895980311</v>
+        <v>1.021144895980312</v>
       </c>
       <c r="J23">
-        <v>0.9649146166533863</v>
+        <v>0.9649146166533873</v>
       </c>
       <c r="K23">
-        <v>0.9813565303183205</v>
+        <v>0.9813565303183212</v>
       </c>
       <c r="L23">
-        <v>0.940929218801444</v>
+        <v>0.9409292188014445</v>
       </c>
       <c r="M23">
-        <v>0.9301796340285987</v>
+        <v>0.9301796340285995</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469115893555651</v>
+        <v>0.946911589355563</v>
       </c>
       <c r="D24">
-        <v>0.9770606858041467</v>
+        <v>0.9770606858041448</v>
       </c>
       <c r="E24">
-        <v>0.9364248090318112</v>
+        <v>0.9364248090318102</v>
       </c>
       <c r="F24">
-        <v>0.9298735956644152</v>
+        <v>0.9298735956644137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026375675827584</v>
+        <v>1.026375675827583</v>
       </c>
       <c r="J24">
-        <v>0.9766183359737274</v>
+        <v>0.9766183359737256</v>
       </c>
       <c r="K24">
-        <v>0.9915029840336115</v>
+        <v>0.9915029840336096</v>
       </c>
       <c r="L24">
-        <v>0.9516686100824261</v>
+        <v>0.9516686100824253</v>
       </c>
       <c r="M24">
-        <v>0.9452553007606375</v>
+        <v>0.945255300760636</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9632528092955923</v>
+        <v>0.9632528092955913</v>
       </c>
       <c r="D25">
-        <v>0.9895345324112206</v>
+        <v>0.9895345324112197</v>
       </c>
       <c r="E25">
-        <v>0.9497592585532897</v>
+        <v>0.9497592585532895</v>
       </c>
       <c r="F25">
-        <v>0.9478991312476007</v>
+        <v>0.9478991312476001</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03188403201275</v>
       </c>
       <c r="J25">
-        <v>0.9890834658306156</v>
+        <v>0.9890834658306146</v>
       </c>
       <c r="K25">
-        <v>1.002297513270799</v>
+        <v>1.002297513270797</v>
       </c>
       <c r="L25">
-        <v>0.9631910093010017</v>
+        <v>0.9631910093010013</v>
       </c>
       <c r="M25">
-        <v>0.9613639408110977</v>
+        <v>0.9613639408110969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9753386216277307</v>
+        <v>0.9753386216277309</v>
       </c>
       <c r="D2">
-        <v>0.9987752828330178</v>
+        <v>0.998775282833018</v>
       </c>
       <c r="E2">
-        <v>0.9597070133028366</v>
+        <v>0.9597070133028368</v>
       </c>
       <c r="F2">
-        <v>0.9612737304121807</v>
+        <v>0.9612737304121809</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>0.9717577761942593</v>
       </c>
       <c r="M2">
-        <v>0.9733003143705533</v>
+        <v>0.9733003143705534</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9836470206474694</v>
+        <v>0.9836470206474701</v>
       </c>
       <c r="D3">
-        <v>1.00513248891162</v>
+        <v>1.005132488911621</v>
       </c>
       <c r="E3">
-        <v>0.966590671810852</v>
+        <v>0.9665906718108523</v>
       </c>
       <c r="F3">
-        <v>0.9704943088034468</v>
+        <v>0.9704943088034473</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.004593633862663</v>
       </c>
       <c r="K3">
-        <v>1.015700117112532</v>
+        <v>1.015700117112533</v>
       </c>
       <c r="L3">
-        <v>0.9776696648491287</v>
+        <v>0.9776696648491291</v>
       </c>
       <c r="M3">
-        <v>0.9815191797872196</v>
+        <v>0.9815191797872201</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9888297521880185</v>
+        <v>0.9888297521880197</v>
       </c>
       <c r="D4">
-        <v>1.009099059758168</v>
+        <v>1.009099059758169</v>
       </c>
       <c r="E4">
-        <v>0.9709043161162266</v>
+        <v>0.970904316116227</v>
       </c>
       <c r="F4">
-        <v>0.9762585509152858</v>
+        <v>0.9762585509152866</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.040295388289747</v>
       </c>
       <c r="J4">
-        <v>1.008523575374868</v>
+        <v>1.008523575374869</v>
       </c>
       <c r="K4">
-        <v>1.019088893699406</v>
+        <v>1.019088893699407</v>
       </c>
       <c r="L4">
-        <v>0.9813670655556439</v>
+        <v>0.9813670655556442</v>
       </c>
       <c r="M4">
-        <v>0.9866522192740271</v>
+        <v>0.9866522192740279</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,13 +538,13 @@
         <v>0.9909652703075308</v>
       </c>
       <c r="D5">
-        <v>1.010733543593246</v>
+        <v>1.010733543593247</v>
       </c>
       <c r="E5">
-        <v>0.9726862989128544</v>
+        <v>0.9726862989128545</v>
       </c>
       <c r="F5">
-        <v>0.9786367316231152</v>
+        <v>0.9786367316231155</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -556,13 +556,13 @@
         <v>1.010141203183577</v>
       </c>
       <c r="K5">
-        <v>1.020482732069292</v>
+        <v>1.020482732069293</v>
       </c>
       <c r="L5">
-        <v>0.9828927513579245</v>
+        <v>0.9828927513579248</v>
       </c>
       <c r="M5">
-        <v>0.9887687496014832</v>
+        <v>0.9887687496014835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913213751590149</v>
+        <v>0.9913213751590154</v>
       </c>
       <c r="D6">
         <v>1.011006099561578</v>
@@ -582,7 +582,7 @@
         <v>0.972983715273109</v>
       </c>
       <c r="F6">
-        <v>0.9790334825149707</v>
+        <v>0.9790334825149709</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.041097036940051</v>
       </c>
       <c r="J6">
-        <v>1.010410846837545</v>
+        <v>1.010410846837546</v>
       </c>
       <c r="K6">
         <v>1.020715009717643</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888584535105269</v>
+        <v>0.9888584535105275</v>
       </c>
       <c r="D7">
         <v>1.009121027077355</v>
       </c>
       <c r="E7">
-        <v>0.9709282480123835</v>
+        <v>0.9709282480123841</v>
       </c>
       <c r="F7">
-        <v>0.9762905014430016</v>
+        <v>0.9762905014430019</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.040304643364295</v>
       </c>
       <c r="J7">
-        <v>1.008545323035572</v>
+        <v>1.008545323035573</v>
       </c>
       <c r="K7">
         <v>1.019107636870797</v>
       </c>
       <c r="L7">
-        <v>0.9813875622007248</v>
+        <v>0.9813875622007256</v>
       </c>
       <c r="M7">
-        <v>0.9866806594919306</v>
+        <v>0.9866806594919312</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781884201250515</v>
+        <v>0.9781884201250527</v>
       </c>
       <c r="D8">
-        <v>1.000955508426909</v>
+        <v>1.00095550842691</v>
       </c>
       <c r="E8">
-        <v>0.9620638573952539</v>
+        <v>0.9620638573952549</v>
       </c>
       <c r="F8">
-        <v>0.9644337940748779</v>
+        <v>0.9644337940748789</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036833083086728</v>
+        <v>1.036833083086729</v>
       </c>
       <c r="J8">
-        <v>1.00044882062359</v>
+        <v>1.000448820623592</v>
       </c>
       <c r="K8">
-        <v>1.012122552281558</v>
+        <v>1.012122552281559</v>
       </c>
       <c r="L8">
-        <v>0.9737834579183839</v>
+        <v>0.9737834579183849</v>
       </c>
       <c r="M8">
-        <v>0.9761181031057691</v>
+        <v>0.9761181031057701</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9577524500204823</v>
+        <v>0.9577524500204816</v>
       </c>
       <c r="D9">
-        <v>0.9853328220926909</v>
+        <v>0.9853328220926905</v>
       </c>
       <c r="E9">
-        <v>0.9452564730906933</v>
+        <v>0.9452564730906935</v>
       </c>
       <c r="F9">
-        <v>0.9418251186738924</v>
+        <v>0.9418251186738921</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.030039557363885</v>
       </c>
       <c r="J9">
-        <v>0.9848906544615075</v>
+        <v>0.9848906544615069</v>
       </c>
       <c r="K9">
-        <v>0.9986684325313002</v>
+        <v>0.9986684325312998</v>
       </c>
       <c r="L9">
-        <v>0.9593048971617829</v>
+        <v>0.9593048971617831</v>
       </c>
       <c r="M9">
-        <v>0.9559382601602372</v>
+        <v>0.9559382601602369</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9427794529021593</v>
+        <v>0.9427794529021598</v>
       </c>
       <c r="D10">
-        <v>0.9739113519791514</v>
+        <v>0.9739113519791521</v>
       </c>
       <c r="E10">
-        <v>0.9330731659796703</v>
+        <v>0.9330731659796705</v>
       </c>
       <c r="F10">
-        <v>0.9253242756267571</v>
+        <v>0.9253242756267575</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.024970356649824</v>
       </c>
       <c r="J10">
-        <v>0.9734628353713737</v>
+        <v>0.9734628353713745</v>
       </c>
       <c r="K10">
-        <v>0.988768181609154</v>
+        <v>0.9887681816091549</v>
       </c>
       <c r="L10">
         <v>0.9487659436808178</v>
       </c>
       <c r="M10">
-        <v>0.9411867595632092</v>
+        <v>0.9411867595632095</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9359066078840544</v>
+        <v>0.9359066078840538</v>
       </c>
       <c r="D11">
-        <v>0.9686783040955126</v>
+        <v>0.9686783040955121</v>
       </c>
       <c r="E11">
-        <v>0.9275160234410182</v>
+        <v>0.9275160234410181</v>
       </c>
       <c r="F11">
-        <v>0.9177640956882185</v>
+        <v>0.917764095688218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022623600367078</v>
+        <v>1.022623600367077</v>
       </c>
       <c r="J11">
-        <v>0.9682121703324307</v>
+        <v>0.9682121703324301</v>
       </c>
       <c r="K11">
-        <v>0.9842161034028748</v>
+        <v>0.9842161034028742</v>
       </c>
       <c r="L11">
         <v>0.9439478241290019</v>
       </c>
       <c r="M11">
-        <v>0.934423462333554</v>
+        <v>0.9344234623335534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9332880098938446</v>
+        <v>0.9332880098938433</v>
       </c>
       <c r="D12">
-        <v>0.9666862860112734</v>
+        <v>0.9666862860112722</v>
       </c>
       <c r="E12">
-        <v>0.9254044135542383</v>
+        <v>0.9254044135542376</v>
       </c>
       <c r="F12">
-        <v>0.914885584946809</v>
+        <v>0.9148855849468081</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.021726667398428</v>
       </c>
       <c r="J12">
-        <v>0.9662110363217671</v>
+        <v>0.9662110363217659</v>
       </c>
       <c r="K12">
-        <v>0.9824808193716034</v>
+        <v>0.9824808193716018</v>
       </c>
       <c r="L12">
-        <v>0.9421153131446607</v>
+        <v>0.9421153131446601</v>
       </c>
       <c r="M12">
-        <v>0.9318477671548179</v>
+        <v>0.9318477671548169</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9338528119232579</v>
+        <v>0.9338528119232582</v>
       </c>
       <c r="D13">
-        <v>0.9671158539328661</v>
+        <v>0.9671158539328665</v>
       </c>
       <c r="E13">
-        <v>0.9258595998332833</v>
+        <v>0.9258595998332831</v>
       </c>
       <c r="F13">
-        <v>0.9155063609804269</v>
+        <v>0.9155063609804276</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.021920248840328</v>
       </c>
       <c r="J13">
-        <v>0.9666426822377031</v>
+        <v>0.9666426822377032</v>
       </c>
       <c r="K13">
-        <v>0.9828551374183372</v>
+        <v>0.9828551374183376</v>
       </c>
       <c r="L13">
-        <v>0.9425104143381308</v>
+        <v>0.9425104143381309</v>
       </c>
       <c r="M13">
-        <v>0.9324032633973094</v>
+        <v>0.9324032633973098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9356915407077416</v>
+        <v>0.935691540707739</v>
       </c>
       <c r="D14">
-        <v>0.9685146594953786</v>
+        <v>0.9685146594953764</v>
       </c>
       <c r="E14">
-        <v>0.9273424776744805</v>
+        <v>0.9273424776744794</v>
       </c>
       <c r="F14">
-        <v>0.9175276427764912</v>
+        <v>0.9175276427764891</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022549990233204</v>
+        <v>1.022549990233202</v>
       </c>
       <c r="J14">
-        <v>0.968047826885409</v>
+        <v>0.9680478268854064</v>
       </c>
       <c r="K14">
-        <v>0.9840736003297046</v>
+        <v>0.9840736003297025</v>
       </c>
       <c r="L14">
-        <v>0.9437972516533735</v>
+        <v>0.9437972516533724</v>
       </c>
       <c r="M14">
-        <v>0.9342118953619889</v>
+        <v>0.9342118953619869</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.936815496332695</v>
+        <v>0.9368154963326953</v>
       </c>
       <c r="D15">
-        <v>0.9693699527849577</v>
+        <v>0.9693699527849581</v>
       </c>
       <c r="E15">
-        <v>0.9282496730968833</v>
+        <v>0.928249673096883</v>
       </c>
       <c r="F15">
-        <v>0.9187634405398872</v>
+        <v>0.918763440539887</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.022934569320826</v>
       </c>
       <c r="J15">
-        <v>0.9689066737517537</v>
+        <v>0.9689066737517538</v>
       </c>
       <c r="K15">
-        <v>0.9848182955725451</v>
+        <v>0.9848182955725453</v>
       </c>
       <c r="L15">
-        <v>0.9445842861805468</v>
+        <v>0.9445842861805465</v>
       </c>
       <c r="M15">
-        <v>0.9353176057454948</v>
+        <v>0.9353176057454947</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432267892569429</v>
+        <v>0.9432267892569415</v>
       </c>
       <c r="D16">
-        <v>0.9742521846454545</v>
+        <v>0.9742521846454535</v>
       </c>
       <c r="E16">
-        <v>0.9334356231382827</v>
+        <v>0.9334356231382821</v>
       </c>
       <c r="F16">
-        <v>0.9258166257482201</v>
+        <v>0.925816625748219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.02512270670725</v>
+        <v>1.025122706707249</v>
       </c>
       <c r="J16">
-        <v>0.9738044966320291</v>
+        <v>0.9738044966320277</v>
       </c>
       <c r="K16">
-        <v>0.9890643261883846</v>
+        <v>0.9890643261883835</v>
       </c>
       <c r="L16">
-        <v>0.949079967034024</v>
+        <v>0.9490799670340235</v>
       </c>
       <c r="M16">
-        <v>0.9416271262721936</v>
+        <v>0.9416271262721925</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471394559276202</v>
+        <v>0.9471394559276216</v>
       </c>
       <c r="D17">
-        <v>0.9772344191460741</v>
+        <v>0.9772344191460755</v>
       </c>
       <c r="E17">
-        <v>0.9366098680300893</v>
+        <v>0.9366098680300898</v>
       </c>
       <c r="F17">
-        <v>0.9301245602851318</v>
+        <v>0.9301245602851328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02645304038393</v>
+        <v>1.026453040383931</v>
       </c>
       <c r="J17">
-        <v>0.9767923121352819</v>
+        <v>0.9767923121352831</v>
       </c>
       <c r="K17">
-        <v>0.9916537436570271</v>
+        <v>0.9916537436570284</v>
       </c>
       <c r="L17">
-        <v>0.9518288060232827</v>
+        <v>0.951828806023283</v>
       </c>
       <c r="M17">
-        <v>0.945479712498879</v>
+        <v>0.94547971249888</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9493846214059879</v>
+        <v>0.9493846214059881</v>
       </c>
       <c r="D18">
-        <v>0.9789465514970023</v>
+        <v>0.9789465514970024</v>
       </c>
       <c r="E18">
-        <v>0.938434560608947</v>
+        <v>0.9384345606089466</v>
       </c>
       <c r="F18">
-        <v>0.9325978490814835</v>
+        <v>0.932597849081483</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.02721454445162</v>
       </c>
       <c r="J18">
-        <v>0.9785062913752346</v>
+        <v>0.9785062913752347</v>
       </c>
       <c r="K18">
         <v>0.9931388677454179</v>
       </c>
       <c r="L18">
-        <v>0.9534079318717797</v>
+        <v>0.9534079318717794</v>
       </c>
       <c r="M18">
-        <v>0.9476911377189593</v>
+        <v>0.947691137718959</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.950144083207033</v>
+        <v>0.9501440832070349</v>
       </c>
       <c r="D19">
-        <v>0.9795258438600626</v>
+        <v>0.9795258438600642</v>
       </c>
       <c r="E19">
-        <v>0.9390523309964238</v>
+        <v>0.9390523309964247</v>
       </c>
       <c r="F19">
-        <v>0.933434702964981</v>
+        <v>0.9334347029649823</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027471812995602</v>
       </c>
       <c r="J19">
-        <v>0.9790859837841578</v>
+        <v>0.9790859837841596</v>
       </c>
       <c r="K19">
-        <v>0.993641102569739</v>
+        <v>0.9936411025697407</v>
       </c>
       <c r="L19">
-        <v>0.953942390618276</v>
+        <v>0.9539423906182768</v>
       </c>
       <c r="M19">
-        <v>0.9484393115397074</v>
+        <v>0.9484393115397088</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9467235417433328</v>
+        <v>0.9467235417433327</v>
       </c>
       <c r="D20">
         <v>0.9769173166897746</v>
       </c>
       <c r="E20">
-        <v>0.9362721069001448</v>
+        <v>0.9362721069001447</v>
       </c>
       <c r="F20">
-        <v>0.929666493775347</v>
+        <v>0.9296664937753466</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.026311819849838</v>
       </c>
       <c r="J20">
-        <v>0.9764747587979888</v>
+        <v>0.9764747587979886</v>
       </c>
       <c r="K20">
-        <v>0.9913785649702727</v>
+        <v>0.9913785649702729</v>
       </c>
       <c r="L20">
         <v>0.9515364179871895</v>
       </c>
       <c r="M20">
-        <v>0.9450701084379296</v>
+        <v>0.9450701084379295</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9351519594557939</v>
+        <v>0.9351519594557951</v>
       </c>
       <c r="D21">
-        <v>0.9681041224958011</v>
+        <v>0.9681041224958022</v>
       </c>
       <c r="E21">
-        <v>0.9269071622961689</v>
+        <v>0.926907162296169</v>
       </c>
       <c r="F21">
-        <v>0.9169344379967532</v>
+        <v>0.9169344379967538</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022365265714181</v>
+        <v>1.022365265714182</v>
       </c>
       <c r="J21">
-        <v>0.9676354972562968</v>
+        <v>0.9676354972562977</v>
       </c>
       <c r="K21">
-        <v>0.9837160611271839</v>
+        <v>0.9837160611271849</v>
       </c>
       <c r="L21">
-        <v>0.9434195337854047</v>
+        <v>0.9434195337854048</v>
       </c>
       <c r="M21">
-        <v>0.9336811143778879</v>
+        <v>0.9336811143778884</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9274916356439269</v>
+        <v>0.9274916356439258</v>
       </c>
       <c r="D22">
-        <v>0.9622806724528969</v>
+        <v>0.9622806724528958</v>
       </c>
       <c r="E22">
-        <v>0.9207413400588146</v>
+        <v>0.920741340058814</v>
       </c>
       <c r="F22">
-        <v>0.9085173500573056</v>
+        <v>0.9085173500573047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019736312866741</v>
+        <v>1.01973631286674</v>
       </c>
       <c r="J22">
-        <v>0.9617805531686831</v>
+        <v>0.9617805531686822</v>
       </c>
       <c r="K22">
-        <v>0.9786383116799042</v>
+        <v>0.9786383116799031</v>
       </c>
       <c r="L22">
-        <v>0.938065325271723</v>
+        <v>0.9380653252717225</v>
       </c>
       <c r="M22">
-        <v>0.9261484887543004</v>
+        <v>0.9261484887542996</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9315917600775878</v>
+        <v>0.9315917600775869</v>
       </c>
       <c r="D23">
-        <v>0.9653964761878018</v>
+        <v>0.9653964761878011</v>
       </c>
       <c r="E23">
-        <v>0.9240382396432718</v>
+        <v>0.9240382396432711</v>
       </c>
       <c r="F23">
-        <v>0.9130215069556629</v>
+        <v>0.913021506955662</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021144895980312</v>
+        <v>1.021144895980311</v>
       </c>
       <c r="J23">
-        <v>0.9649146166533873</v>
+        <v>0.9649146166533863</v>
       </c>
       <c r="K23">
-        <v>0.9813565303183212</v>
+        <v>0.9813565303183205</v>
       </c>
       <c r="L23">
-        <v>0.9409292188014445</v>
+        <v>0.940929218801444</v>
       </c>
       <c r="M23">
-        <v>0.9301796340285995</v>
+        <v>0.9301796340285987</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.946911589355563</v>
+        <v>0.9469115893555651</v>
       </c>
       <c r="D24">
-        <v>0.9770606858041448</v>
+        <v>0.9770606858041467</v>
       </c>
       <c r="E24">
-        <v>0.9364248090318102</v>
+        <v>0.9364248090318112</v>
       </c>
       <c r="F24">
-        <v>0.9298735956644137</v>
+        <v>0.9298735956644152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026375675827583</v>
+        <v>1.026375675827584</v>
       </c>
       <c r="J24">
-        <v>0.9766183359737256</v>
+        <v>0.9766183359737274</v>
       </c>
       <c r="K24">
-        <v>0.9915029840336096</v>
+        <v>0.9915029840336115</v>
       </c>
       <c r="L24">
-        <v>0.9516686100824253</v>
+        <v>0.9516686100824261</v>
       </c>
       <c r="M24">
-        <v>0.945255300760636</v>
+        <v>0.9452553007606375</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9632528092955913</v>
+        <v>0.9632528092955923</v>
       </c>
       <c r="D25">
-        <v>0.9895345324112197</v>
+        <v>0.9895345324112206</v>
       </c>
       <c r="E25">
-        <v>0.9497592585532895</v>
+        <v>0.9497592585532897</v>
       </c>
       <c r="F25">
-        <v>0.9478991312476001</v>
+        <v>0.9478991312476007</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.03188403201275</v>
       </c>
       <c r="J25">
-        <v>0.9890834658306146</v>
+        <v>0.9890834658306156</v>
       </c>
       <c r="K25">
-        <v>1.002297513270797</v>
+        <v>1.002297513270799</v>
       </c>
       <c r="L25">
-        <v>0.9631910093010013</v>
+        <v>0.9631910093010017</v>
       </c>
       <c r="M25">
-        <v>0.9613639408110969</v>
+        <v>0.9613639408110977</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9753386216277309</v>
+        <v>0.9753602067828524</v>
       </c>
       <c r="D2">
-        <v>0.998775282833018</v>
+        <v>0.9987924592988147</v>
       </c>
       <c r="E2">
-        <v>0.9597070133028368</v>
+        <v>0.9597205484481282</v>
       </c>
       <c r="F2">
-        <v>0.9612737304121809</v>
+        <v>0.9612918729749913</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035896209128952</v>
+        <v>1.03590492201449</v>
       </c>
       <c r="J2">
-        <v>0.9982828297380942</v>
+        <v>0.9983037232263469</v>
       </c>
       <c r="K2">
-        <v>1.010251706321848</v>
+        <v>1.010268642756004</v>
       </c>
       <c r="L2">
-        <v>0.9717577761942593</v>
+        <v>0.9717711020217437</v>
       </c>
       <c r="M2">
-        <v>0.9733003143705534</v>
+        <v>0.9733181775309225</v>
+      </c>
+      <c r="N2">
+        <v>1.000537410845769</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9836470206474701</v>
+        <v>0.9836625741553424</v>
       </c>
       <c r="D3">
-        <v>1.005132488911621</v>
+        <v>1.005144886590541</v>
       </c>
       <c r="E3">
-        <v>0.9665906718108523</v>
+        <v>0.9666013328185263</v>
       </c>
       <c r="F3">
-        <v>0.9704943088034473</v>
+        <v>0.9705076736836187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038616572154836</v>
+        <v>1.0386228688013</v>
       </c>
       <c r="J3">
-        <v>1.004593633862663</v>
+        <v>1.004608743853224</v>
       </c>
       <c r="K3">
-        <v>1.015700117112533</v>
+        <v>1.01571235817868</v>
       </c>
       <c r="L3">
-        <v>0.9776696648491291</v>
+        <v>0.9776801772958128</v>
       </c>
       <c r="M3">
-        <v>0.9815191797872201</v>
+        <v>0.9815323603124699</v>
+      </c>
+      <c r="N3">
+        <v>1.004897831306639</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9888297521880197</v>
+        <v>0.9888416244080905</v>
       </c>
       <c r="D4">
-        <v>1.009099059758169</v>
+        <v>1.009108532710931</v>
       </c>
       <c r="E4">
-        <v>0.970904316116227</v>
+        <v>0.970913247689244</v>
       </c>
       <c r="F4">
-        <v>0.9762585509152866</v>
+        <v>0.9762690213777301</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040295388289747</v>
+        <v>1.040300203345038</v>
       </c>
       <c r="J4">
-        <v>1.008523575374869</v>
+        <v>1.008535134523708</v>
       </c>
       <c r="K4">
-        <v>1.019088893699407</v>
+        <v>1.019098254862768</v>
       </c>
       <c r="L4">
-        <v>0.9813670655556442</v>
+        <v>0.9813758810980666</v>
       </c>
       <c r="M4">
-        <v>0.9866522192740279</v>
+        <v>0.9866625555730637</v>
+      </c>
+      <c r="N4">
+        <v>1.007611193718545</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9909652703075308</v>
+        <v>0.9909756425845427</v>
       </c>
       <c r="D5">
-        <v>1.010733543593247</v>
+        <v>1.010741823129096</v>
       </c>
       <c r="E5">
-        <v>0.9726862989128545</v>
+        <v>0.9726945315742513</v>
       </c>
       <c r="F5">
-        <v>0.9786367316231155</v>
+        <v>0.9786460274978606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04098269106372</v>
+        <v>1.040986900920128</v>
       </c>
       <c r="J5">
-        <v>1.010141203183577</v>
+        <v>1.010151310984747</v>
       </c>
       <c r="K5">
-        <v>1.020482732069293</v>
+        <v>1.020490916725686</v>
       </c>
       <c r="L5">
-        <v>0.9828927513579248</v>
+        <v>0.9829008802514119</v>
       </c>
       <c r="M5">
-        <v>0.9887687496014835</v>
+        <v>0.9887779300753718</v>
+      </c>
+      <c r="N5">
+        <v>1.008727559080969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913213751590154</v>
+        <v>0.9913314982418495</v>
       </c>
       <c r="D6">
-        <v>1.011006099561578</v>
+        <v>1.011014180731561</v>
       </c>
       <c r="E6">
-        <v>0.972983715273109</v>
+        <v>0.9729918321535879</v>
       </c>
       <c r="F6">
-        <v>0.9790334825149709</v>
+        <v>0.9790425835166359</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041097036940051</v>
+        <v>1.041101146165055</v>
       </c>
       <c r="J6">
-        <v>1.010410846837546</v>
+        <v>1.010420713263024</v>
       </c>
       <c r="K6">
-        <v>1.020715009717643</v>
+        <v>1.020722998740828</v>
       </c>
       <c r="L6">
-        <v>0.983147290462838</v>
+        <v>0.9831553055570265</v>
       </c>
       <c r="M6">
-        <v>0.9891217759880176</v>
+        <v>0.9891307646116397</v>
+      </c>
+      <c r="N6">
+        <v>1.008913617117147</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888584535105275</v>
+        <v>0.9888703055075231</v>
       </c>
       <c r="D7">
-        <v>1.009121027077355</v>
+        <v>1.00913048394645</v>
       </c>
       <c r="E7">
-        <v>0.9709282480123841</v>
+        <v>0.9709371701396456</v>
       </c>
       <c r="F7">
-        <v>0.9762905014430019</v>
+        <v>0.97630095605064</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040304643364295</v>
+        <v>1.040309450265857</v>
       </c>
       <c r="J7">
-        <v>1.008545323035573</v>
+        <v>1.008556862634042</v>
       </c>
       <c r="K7">
-        <v>1.019107636870797</v>
+        <v>1.019116982183729</v>
       </c>
       <c r="L7">
-        <v>0.9813875622007256</v>
+        <v>0.9813963684665451</v>
       </c>
       <c r="M7">
-        <v>0.9866806594919312</v>
+        <v>0.9866909801956122</v>
+      </c>
+      <c r="N7">
+        <v>1.007626204320112</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9781884201250527</v>
+        <v>0.978207917484951</v>
       </c>
       <c r="D8">
-        <v>1.00095550842691</v>
+        <v>1.00097103264348</v>
       </c>
       <c r="E8">
-        <v>0.9620638573952549</v>
+        <v>0.9620763922416546</v>
       </c>
       <c r="F8">
-        <v>0.9644337940748789</v>
+        <v>0.9644502779730608</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036833083086729</v>
+        <v>1.03684096118452</v>
       </c>
       <c r="J8">
-        <v>1.000448820623592</v>
+        <v>1.000467717051842</v>
       </c>
       <c r="K8">
-        <v>1.012122552281559</v>
+        <v>1.012137866721429</v>
       </c>
       <c r="L8">
-        <v>0.9737834579183849</v>
+        <v>0.9737958055225301</v>
       </c>
       <c r="M8">
-        <v>0.9761181031057701</v>
+        <v>0.9761343423089913</v>
+      </c>
+      <c r="N8">
+        <v>1.002034408892351</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9577524500204816</v>
+        <v>0.9577874074631945</v>
       </c>
       <c r="D9">
-        <v>0.9853328220926905</v>
+        <v>0.9853605330413184</v>
       </c>
       <c r="E9">
-        <v>0.9452564730906935</v>
+        <v>0.9452765380118735</v>
       </c>
       <c r="F9">
-        <v>0.9418251186738921</v>
+        <v>0.9418540059175917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030039557363885</v>
+        <v>1.030053578581535</v>
       </c>
       <c r="J9">
-        <v>0.9848906544615069</v>
+        <v>0.9849242179788409</v>
       </c>
       <c r="K9">
-        <v>0.9986684325312998</v>
+        <v>0.9986956764772571</v>
       </c>
       <c r="L9">
-        <v>0.9593048971617831</v>
+        <v>0.9593245854508221</v>
       </c>
       <c r="M9">
-        <v>0.9559382601602369</v>
+        <v>0.9559666000000389</v>
+      </c>
+      <c r="N9">
+        <v>0.991273482552758</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9427794529021598</v>
+        <v>0.942826562471647</v>
       </c>
       <c r="D10">
-        <v>0.9739113519791521</v>
+        <v>0.9739485624444078</v>
       </c>
       <c r="E10">
-        <v>0.9330731659796705</v>
+        <v>0.9330993249026412</v>
       </c>
       <c r="F10">
-        <v>0.9253242756267575</v>
+        <v>0.9253631038790077</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024970356649824</v>
+        <v>1.024989145843023</v>
       </c>
       <c r="J10">
-        <v>0.9734628353713745</v>
+        <v>0.9735077336316998</v>
       </c>
       <c r="K10">
-        <v>0.9887681816091549</v>
+        <v>0.9888046722648138</v>
       </c>
       <c r="L10">
-        <v>0.9487659436808178</v>
+        <v>0.948791536040386</v>
       </c>
       <c r="M10">
-        <v>0.9411867595632095</v>
+        <v>0.941224728020378</v>
+      </c>
+      <c r="N10">
+        <v>0.9833598788470724</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9359066078840538</v>
+        <v>0.9359595715993215</v>
       </c>
       <c r="D11">
-        <v>0.9686783040955121</v>
+        <v>0.9687200653896582</v>
       </c>
       <c r="E11">
-        <v>0.9275160234410181</v>
+        <v>0.9275451647473342</v>
       </c>
       <c r="F11">
-        <v>0.917764095688218</v>
+        <v>0.9178077712738268</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022623600367077</v>
+        <v>1.022644668046719</v>
       </c>
       <c r="J11">
-        <v>0.9682121703324301</v>
+        <v>0.9682624695495257</v>
       </c>
       <c r="K11">
-        <v>0.9842161034028742</v>
+        <v>0.9842570085573378</v>
       </c>
       <c r="L11">
-        <v>0.9439478241290019</v>
+        <v>0.9439762949906663</v>
       </c>
       <c r="M11">
-        <v>0.9344234623335534</v>
+        <v>0.9344661042735095</v>
+      </c>
+      <c r="N11">
+        <v>0.9797219838756849</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9332880098938433</v>
+        <v>0.9333432544065293</v>
       </c>
       <c r="D12">
-        <v>0.9666862860112722</v>
+        <v>0.9667298158230199</v>
       </c>
       <c r="E12">
-        <v>0.9254044135542376</v>
+        <v>0.9254347242987404</v>
       </c>
       <c r="F12">
-        <v>0.9148855849468081</v>
+        <v>0.9149311591634806</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021726667398428</v>
+        <v>1.021748619606011</v>
       </c>
       <c r="J12">
-        <v>0.9662110363217659</v>
+        <v>0.9662634295282211</v>
       </c>
       <c r="K12">
-        <v>0.9824808193716018</v>
+        <v>0.9825234375141098</v>
       </c>
       <c r="L12">
-        <v>0.9421153131446601</v>
+        <v>0.942144910856841</v>
       </c>
       <c r="M12">
-        <v>0.9318477671548169</v>
+        <v>0.9318922359000656</v>
+      </c>
+      <c r="N12">
+        <v>0.9783352633221054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9338528119232582</v>
+        <v>0.9339075620600544</v>
       </c>
       <c r="D13">
-        <v>0.9671158539328665</v>
+        <v>0.9671590006228025</v>
       </c>
       <c r="E13">
-        <v>0.9258595998332831</v>
+        <v>0.925889656750484</v>
       </c>
       <c r="F13">
-        <v>0.9155063609804276</v>
+        <v>0.9155515231808001</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021920248840328</v>
+        <v>1.021942009471578</v>
       </c>
       <c r="J13">
-        <v>0.9666426822377032</v>
+        <v>0.9666946220433172</v>
       </c>
       <c r="K13">
-        <v>0.9828551374183376</v>
+        <v>0.9828973845877489</v>
       </c>
       <c r="L13">
-        <v>0.9425104143381309</v>
+        <v>0.9425397675535816</v>
       </c>
       <c r="M13">
-        <v>0.9324032633973098</v>
+        <v>0.9324473358892519</v>
+      </c>
+      <c r="N13">
+        <v>0.9786343902651569</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.935691540707739</v>
+        <v>0.935744690669858</v>
       </c>
       <c r="D14">
-        <v>0.9685146594953764</v>
+        <v>0.968556565299028</v>
       </c>
       <c r="E14">
-        <v>0.9273424776744794</v>
+        <v>0.9273717143221629</v>
       </c>
       <c r="F14">
-        <v>0.9175276427764891</v>
+        <v>0.9175714731907003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022549990233202</v>
+        <v>1.022571130208641</v>
       </c>
       <c r="J14">
-        <v>0.9680478268854064</v>
+        <v>0.9680982973087568</v>
       </c>
       <c r="K14">
-        <v>0.9840736003297025</v>
+        <v>0.9841146455090736</v>
       </c>
       <c r="L14">
-        <v>0.9437972516533724</v>
+        <v>0.9438258144227964</v>
       </c>
       <c r="M14">
-        <v>0.9342118953619869</v>
+        <v>0.9342546863512418</v>
+      </c>
+      <c r="N14">
+        <v>0.9796081039653464</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368154963326953</v>
+        <v>0.9368676750538203</v>
       </c>
       <c r="D15">
-        <v>0.9693699527849581</v>
+        <v>0.9694111048146271</v>
       </c>
       <c r="E15">
-        <v>0.928249673096883</v>
+        <v>0.9282784128616697</v>
       </c>
       <c r="F15">
-        <v>0.918763440539887</v>
+        <v>0.9188064639667426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022934569320826</v>
+        <v>1.022955332157547</v>
       </c>
       <c r="J15">
-        <v>0.9689066737517538</v>
+        <v>0.968956250948344</v>
       </c>
       <c r="K15">
-        <v>0.9848182955725453</v>
+        <v>0.9848586102658786</v>
       </c>
       <c r="L15">
-        <v>0.9445842861805465</v>
+        <v>0.9446123698861622</v>
       </c>
       <c r="M15">
-        <v>0.9353176057454947</v>
+        <v>0.9353596197172943</v>
+      </c>
+      <c r="N15">
+        <v>0.9802032223520224</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9432267892569415</v>
+        <v>0.943273524167504</v>
       </c>
       <c r="D16">
-        <v>0.9742521846454535</v>
+        <v>0.9742891032970989</v>
       </c>
       <c r="E16">
-        <v>0.9334356231382821</v>
+        <v>0.9334615921698509</v>
       </c>
       <c r="F16">
-        <v>0.925816625748219</v>
+        <v>0.9258551450552042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025122706707249</v>
+        <v>1.025141349676548</v>
       </c>
       <c r="J16">
-        <v>0.9738044966320277</v>
+        <v>0.9738490479364603</v>
       </c>
       <c r="K16">
-        <v>0.9890643261883835</v>
+        <v>0.9891005334440569</v>
       </c>
       <c r="L16">
-        <v>0.9490799670340235</v>
+        <v>0.9491053758808983</v>
       </c>
       <c r="M16">
-        <v>0.9416271262721925</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9416647963943078</v>
+      </c>
+      <c r="N16">
+        <v>0.9835965612654417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471394559276216</v>
+        <v>0.9471829455941145</v>
       </c>
       <c r="D17">
-        <v>0.9772344191460755</v>
+        <v>0.9772688073081579</v>
       </c>
       <c r="E17">
-        <v>0.9366098680300898</v>
+        <v>0.9366341973843949</v>
       </c>
       <c r="F17">
-        <v>0.9301245602851328</v>
+        <v>0.9301604100416307</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026453040383931</v>
+        <v>1.0264704147328</v>
       </c>
       <c r="J17">
-        <v>0.9767923121352831</v>
+        <v>0.9768338515445991</v>
       </c>
       <c r="K17">
-        <v>0.9916537436570284</v>
+        <v>0.9916874916905599</v>
       </c>
       <c r="L17">
-        <v>0.951828806023283</v>
+        <v>0.9518526290681941</v>
       </c>
       <c r="M17">
-        <v>0.94547971249888</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9455148023714657</v>
+      </c>
+      <c r="N17">
+        <v>0.9856661336060788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9493846214059881</v>
+        <v>0.949426273946395</v>
       </c>
       <c r="D18">
-        <v>0.9789465514970024</v>
+        <v>0.9789795049006781</v>
       </c>
       <c r="E18">
-        <v>0.9384345606089466</v>
+        <v>0.9384579659312187</v>
       </c>
       <c r="F18">
-        <v>0.932597849081483</v>
+        <v>0.9326321927948453</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02721454445162</v>
+        <v>1.027231198999548</v>
       </c>
       <c r="J18">
-        <v>0.9785062913752347</v>
+        <v>0.9785461204750187</v>
       </c>
       <c r="K18">
-        <v>0.9931388677454179</v>
+        <v>0.993171220065346</v>
       </c>
       <c r="L18">
-        <v>0.9534079318717794</v>
+        <v>0.9534308602811014</v>
       </c>
       <c r="M18">
-        <v>0.947691137718959</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9477247700304836</v>
+      </c>
+      <c r="N18">
+        <v>0.9868531788754736</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9501440832070349</v>
+        <v>0.9501851183345645</v>
       </c>
       <c r="D19">
-        <v>0.9795258438600642</v>
+        <v>0.9795583147117701</v>
       </c>
       <c r="E19">
-        <v>0.9390523309964247</v>
+        <v>0.9390754264718886</v>
       </c>
       <c r="F19">
-        <v>0.9334347029649823</v>
+        <v>0.9334685413799708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027471812995602</v>
+        <v>1.027488225368861</v>
       </c>
       <c r="J19">
-        <v>0.9790859837841596</v>
+        <v>0.9791252372292458</v>
       </c>
       <c r="K19">
-        <v>0.9936411025697407</v>
+        <v>0.993672985245426</v>
       </c>
       <c r="L19">
-        <v>0.9539423906182768</v>
+        <v>0.9539650188799095</v>
       </c>
       <c r="M19">
-        <v>0.9484393115397088</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9484724545100794</v>
+      </c>
+      <c r="N19">
+        <v>0.9872546234512261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9467235417433327</v>
+        <v>0.9467673737133826</v>
       </c>
       <c r="D20">
-        <v>0.9769173166897746</v>
+        <v>0.9769519720041655</v>
       </c>
       <c r="E20">
-        <v>0.9362721069001447</v>
+        <v>0.9362966087641951</v>
       </c>
       <c r="F20">
-        <v>0.9296664937753466</v>
+        <v>0.9297026245614521</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026311819849838</v>
+        <v>1.026329328184812</v>
       </c>
       <c r="J20">
-        <v>0.9764747587979886</v>
+        <v>0.9765166164585359</v>
       </c>
       <c r="K20">
-        <v>0.9913785649702729</v>
+        <v>0.9914125727763956</v>
       </c>
       <c r="L20">
-        <v>0.9515364179871895</v>
+        <v>0.9515604079761117</v>
       </c>
       <c r="M20">
-        <v>0.9450701084379295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9451054701411228</v>
+      </c>
+      <c r="N20">
+        <v>0.9854461919883232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9351519594557951</v>
+        <v>0.9352055775336605</v>
       </c>
       <c r="D21">
-        <v>0.9681041224958022</v>
+        <v>0.9681463914375239</v>
       </c>
       <c r="E21">
-        <v>0.926907162296169</v>
+        <v>0.9269366386976127</v>
       </c>
       <c r="F21">
-        <v>0.9169344379967538</v>
+        <v>0.9169786577255552</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022365265714182</v>
+        <v>1.022386587346755</v>
       </c>
       <c r="J21">
-        <v>0.9676354972562977</v>
+        <v>0.9676863978238447</v>
       </c>
       <c r="K21">
-        <v>0.9837160611271849</v>
+        <v>0.9837574581336176</v>
       </c>
       <c r="L21">
-        <v>0.9434195337854048</v>
+        <v>0.9434483276438287</v>
       </c>
       <c r="M21">
-        <v>0.9336811143778884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9337242800884598</v>
+      </c>
+      <c r="N21">
+        <v>0.9793223810634731</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9274916356439258</v>
+        <v>0.9275520337911886</v>
       </c>
       <c r="D22">
-        <v>0.9622806724528958</v>
+        <v>0.9623281890577586</v>
       </c>
       <c r="E22">
-        <v>0.920741340058814</v>
+        <v>0.9207743078510012</v>
       </c>
       <c r="F22">
-        <v>0.9085173500573047</v>
+        <v>0.9085672349734356</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01973631286674</v>
+        <v>1.019760257255322</v>
       </c>
       <c r="J22">
-        <v>0.9617805531686822</v>
+        <v>0.9618376570785383</v>
       </c>
       <c r="K22">
-        <v>0.9786383116799031</v>
+        <v>0.9786847863494783</v>
       </c>
       <c r="L22">
-        <v>0.9380653252717225</v>
+        <v>0.9380974795276076</v>
       </c>
       <c r="M22">
-        <v>0.9261484887542996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9261970974898469</v>
+      </c>
+      <c r="N22">
+        <v>0.9752646755276423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9315917600775869</v>
+        <v>0.9316484975183326</v>
       </c>
       <c r="D23">
-        <v>0.9653964761878011</v>
+        <v>0.9654411622392094</v>
       </c>
       <c r="E23">
-        <v>0.9240382396432711</v>
+        <v>0.9240693180417239</v>
       </c>
       <c r="F23">
-        <v>0.913021506955662</v>
+        <v>0.9130683269866229</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021144895980311</v>
+        <v>1.021167426212149</v>
       </c>
       <c r="J23">
-        <v>0.9649146166533863</v>
+        <v>0.9649683774341375</v>
       </c>
       <c r="K23">
-        <v>0.9813565303183205</v>
+        <v>0.9814002676402813</v>
       </c>
       <c r="L23">
-        <v>0.940929218801444</v>
+        <v>0.9409595556588815</v>
       </c>
       <c r="M23">
-        <v>0.9301796340285987</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9302253003346811</v>
+      </c>
+      <c r="N23">
+        <v>0.9774368227397866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469115893555651</v>
+        <v>0.9469552664822869</v>
       </c>
       <c r="D24">
-        <v>0.9770606858041467</v>
+        <v>0.9770952202773915</v>
       </c>
       <c r="E24">
-        <v>0.9364248090318112</v>
+        <v>0.9364492328468511</v>
       </c>
       <c r="F24">
-        <v>0.9298735956644152</v>
+        <v>0.9299095993087457</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026375675827584</v>
+        <v>1.026393123558134</v>
       </c>
       <c r="J24">
-        <v>0.9766183359737274</v>
+        <v>0.9766600496876173</v>
       </c>
       <c r="K24">
-        <v>0.9915029840336115</v>
+        <v>0.9915368743409032</v>
       </c>
       <c r="L24">
-        <v>0.9516686100824261</v>
+        <v>0.951692524543467</v>
       </c>
       <c r="M24">
-        <v>0.9452553007606375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9452905394897275</v>
+      </c>
+      <c r="N24">
+        <v>0.9855456359850245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9632528092955923</v>
+        <v>0.963283488290313</v>
       </c>
       <c r="D25">
-        <v>0.9895345324112206</v>
+        <v>0.9895588820134784</v>
       </c>
       <c r="E25">
-        <v>0.9497592585532897</v>
+        <v>0.9497772125133446</v>
       </c>
       <c r="F25">
-        <v>0.9478991312476007</v>
+        <v>0.9479245582311623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03188403201275</v>
+        <v>1.03189636198182</v>
       </c>
       <c r="J25">
-        <v>0.9890834658306156</v>
+        <v>0.9891129982890051</v>
       </c>
       <c r="K25">
-        <v>1.002297513270799</v>
+        <v>1.00232147457283</v>
       </c>
       <c r="L25">
-        <v>0.9631910093010017</v>
+        <v>0.9632086449957189</v>
       </c>
       <c r="M25">
-        <v>0.9613639408110977</v>
+        <v>0.9613889147622791</v>
+      </c>
+      <c r="N25">
+        <v>0.9941751683367612</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9753602067828524</v>
+        <v>1.019027407208063</v>
       </c>
       <c r="D2">
-        <v>0.9987924592988147</v>
+        <v>1.037179703677241</v>
       </c>
       <c r="E2">
-        <v>0.9597205484481282</v>
+        <v>1.02383988861968</v>
       </c>
       <c r="F2">
-        <v>0.9612918729749913</v>
+        <v>1.037595007460298</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03590492201449</v>
+        <v>1.055389808264597</v>
       </c>
       <c r="J2">
-        <v>0.9983037232263469</v>
+        <v>1.04065353298763</v>
       </c>
       <c r="K2">
-        <v>1.010268642756004</v>
+        <v>1.048144271878434</v>
       </c>
       <c r="L2">
-        <v>0.9717711020217437</v>
+        <v>1.034976793971949</v>
       </c>
       <c r="M2">
-        <v>0.9733181775309225</v>
+        <v>1.048554299177648</v>
       </c>
       <c r="N2">
-        <v>1.000537410845769</v>
+        <v>1.042131380369101</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9836625741553424</v>
+        <v>1.029143919325343</v>
       </c>
       <c r="D3">
-        <v>1.005144886590541</v>
+        <v>1.045268731198893</v>
       </c>
       <c r="E3">
-        <v>0.9666013328185263</v>
+        <v>1.032206356738739</v>
       </c>
       <c r="F3">
-        <v>0.9705076736836187</v>
+        <v>1.046447899815855</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0386228688013</v>
+        <v>1.059013803854032</v>
       </c>
       <c r="J3">
-        <v>1.004608743853224</v>
+        <v>1.048870435649845</v>
       </c>
       <c r="K3">
-        <v>1.01571235817868</v>
+        <v>1.055353388987473</v>
       </c>
       <c r="L3">
-        <v>0.9776801772958128</v>
+        <v>1.042443090090521</v>
       </c>
       <c r="M3">
-        <v>0.9815323603124699</v>
+        <v>1.056519060002079</v>
       </c>
       <c r="N3">
-        <v>1.004897831306639</v>
+        <v>1.050359951975588</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9888416244080905</v>
+        <v>1.035436247321013</v>
       </c>
       <c r="D4">
-        <v>1.009108532710931</v>
+        <v>1.050301743107821</v>
       </c>
       <c r="E4">
-        <v>0.970913247689244</v>
+        <v>1.03740938536152</v>
       </c>
       <c r="F4">
-        <v>0.9762690213777301</v>
+        <v>1.051957461815279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040300203345038</v>
+        <v>1.061250747987102</v>
       </c>
       <c r="J4">
-        <v>1.008535134523708</v>
+        <v>1.053974963528534</v>
       </c>
       <c r="K4">
-        <v>1.019098254862768</v>
+        <v>1.059828732296742</v>
       </c>
       <c r="L4">
-        <v>0.9813758810980666</v>
+        <v>1.047076341137556</v>
       </c>
       <c r="M4">
-        <v>0.9866625555730637</v>
+        <v>1.061466780011737</v>
       </c>
       <c r="N4">
-        <v>1.007611193718545</v>
+        <v>1.055471728869362</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9909756425845427</v>
+        <v>1.038025292648088</v>
       </c>
       <c r="D5">
-        <v>1.010741823129096</v>
+        <v>1.052372888684819</v>
       </c>
       <c r="E5">
-        <v>0.9726945315742513</v>
+        <v>1.03954988401455</v>
       </c>
       <c r="F5">
-        <v>0.9786460274978606</v>
+        <v>1.054225048002899</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040986900920128</v>
+        <v>1.062166971368524</v>
       </c>
       <c r="J5">
-        <v>1.010151310984747</v>
+        <v>1.056073691508296</v>
       </c>
       <c r="K5">
-        <v>1.020490916725686</v>
+        <v>1.061667981876267</v>
       </c>
       <c r="L5">
-        <v>0.9829008802514119</v>
+        <v>1.048980068829434</v>
       </c>
       <c r="M5">
-        <v>0.9887779300753718</v>
+        <v>1.063500960011993</v>
       </c>
       <c r="N5">
-        <v>1.008727559080969</v>
+        <v>1.057573437283583</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913314982418495</v>
+        <v>1.038456827296727</v>
       </c>
       <c r="D6">
-        <v>1.011014180731561</v>
+        <v>1.052718112159876</v>
       </c>
       <c r="E6">
-        <v>0.9729918321535879</v>
+        <v>1.039906631942211</v>
       </c>
       <c r="F6">
-        <v>0.9790425835166359</v>
+        <v>1.054603035181055</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041101146165055</v>
+        <v>1.062319436014698</v>
       </c>
       <c r="J6">
-        <v>1.010420713263024</v>
+        <v>1.056423406065411</v>
       </c>
       <c r="K6">
-        <v>1.020722998740828</v>
+        <v>1.061974411604112</v>
       </c>
       <c r="L6">
-        <v>0.9831553055570265</v>
+        <v>1.049297216482364</v>
       </c>
       <c r="M6">
-        <v>0.9891307646116397</v>
+        <v>1.063839913400645</v>
       </c>
       <c r="N6">
-        <v>1.008913617117147</v>
+        <v>1.057923648475482</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9888703055075231</v>
+        <v>1.035471057739824</v>
       </c>
       <c r="D7">
-        <v>1.00913048394645</v>
+        <v>1.050329589396865</v>
       </c>
       <c r="E7">
-        <v>0.9709371701396456</v>
+        <v>1.037438166495352</v>
       </c>
       <c r="F7">
-        <v>0.97630095605064</v>
+        <v>1.051987947859073</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040309450265857</v>
+        <v>1.0612630835813</v>
       </c>
       <c r="J7">
-        <v>1.008556862634042</v>
+        <v>1.054003187879793</v>
       </c>
       <c r="K7">
-        <v>1.019116982183729</v>
+        <v>1.059853470280357</v>
       </c>
       <c r="L7">
-        <v>0.9813963684665451</v>
+        <v>1.047101948008716</v>
       </c>
       <c r="M7">
-        <v>0.9866909801956122</v>
+        <v>1.061494136647685</v>
       </c>
       <c r="N7">
-        <v>1.007626204320112</v>
+        <v>1.055499993302437</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.978207917484951</v>
+        <v>1.022501746399463</v>
       </c>
       <c r="D8">
-        <v>1.00097103264348</v>
+        <v>1.039957261675932</v>
       </c>
       <c r="E8">
-        <v>0.9620763922416546</v>
+        <v>1.026713274692543</v>
       </c>
       <c r="F8">
-        <v>0.9644502779730608</v>
+        <v>1.04063460491989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03684096118452</v>
+        <v>1.056637992548923</v>
       </c>
       <c r="J8">
-        <v>1.000467717051842</v>
+        <v>1.043476764035182</v>
       </c>
       <c r="K8">
-        <v>1.012137866721429</v>
+        <v>1.050621878648537</v>
       </c>
       <c r="L8">
-        <v>0.9737958055225301</v>
+        <v>1.037543158372739</v>
       </c>
       <c r="M8">
-        <v>0.9761343423089913</v>
+        <v>1.051290910237702</v>
       </c>
       <c r="N8">
-        <v>1.002034408892351</v>
+        <v>1.044958620728569</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9577874074631945</v>
+        <v>0.9974697285784886</v>
       </c>
       <c r="D9">
-        <v>0.9853605330413184</v>
+        <v>1.019961097099116</v>
       </c>
       <c r="E9">
-        <v>0.9452765380118735</v>
+        <v>1.006015227537734</v>
       </c>
       <c r="F9">
-        <v>0.9418540059175917</v>
+        <v>1.018756260342123</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030053578581535</v>
+        <v>1.047573332770399</v>
       </c>
       <c r="J9">
-        <v>0.9849242179788409</v>
+        <v>1.023112154742297</v>
       </c>
       <c r="K9">
-        <v>0.9986956764772571</v>
+        <v>1.032738413049339</v>
       </c>
       <c r="L9">
-        <v>0.9593245854508221</v>
+        <v>1.019011459960867</v>
       </c>
       <c r="M9">
-        <v>0.9559666000000389</v>
+        <v>1.031552187199119</v>
       </c>
       <c r="N9">
-        <v>0.991273482552758</v>
+        <v>1.024565091354635</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.942826562471647</v>
+        <v>0.9789215337934506</v>
       </c>
       <c r="D10">
-        <v>0.9739485624444078</v>
+        <v>1.005175619937911</v>
       </c>
       <c r="E10">
-        <v>0.9330993249026412</v>
+        <v>0.9906949581312841</v>
       </c>
       <c r="F10">
-        <v>0.9253631038790077</v>
+        <v>1.002583060954014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024989145843023</v>
+        <v>1.040768844092888</v>
       </c>
       <c r="J10">
-        <v>0.9735077336316998</v>
+        <v>1.007997150866275</v>
       </c>
       <c r="K10">
-        <v>0.9888046722648138</v>
+        <v>1.019452051546751</v>
       </c>
       <c r="L10">
-        <v>0.948791536040386</v>
+        <v>1.005234275257015</v>
       </c>
       <c r="M10">
-        <v>0.941224728020378</v>
+        <v>1.016905833532091</v>
       </c>
       <c r="N10">
-        <v>0.9833598788470724</v>
+        <v>1.009428622439394</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9359595715993215</v>
+        <v>0.9703345087337734</v>
       </c>
       <c r="D11">
-        <v>0.9687200653896582</v>
+        <v>0.9983423017254833</v>
       </c>
       <c r="E11">
-        <v>0.9275451647473342</v>
+        <v>0.9836107366997301</v>
       </c>
       <c r="F11">
-        <v>0.9178077712738268</v>
+        <v>0.9951087961805201</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022644668046719</v>
+        <v>1.037599738014861</v>
       </c>
       <c r="J11">
-        <v>0.9682624695495257</v>
+        <v>1.000995688052987</v>
       </c>
       <c r="K11">
-        <v>0.9842570085573378</v>
+        <v>1.013295547664226</v>
       </c>
       <c r="L11">
-        <v>0.9439762949906663</v>
+        <v>0.9988484935223405</v>
       </c>
       <c r="M11">
-        <v>0.9344661042735095</v>
+        <v>1.010123546709974</v>
       </c>
       <c r="N11">
-        <v>0.9797219838756849</v>
+        <v>1.002417216745833</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9333432544065293</v>
+        <v>0.9670491086752653</v>
       </c>
       <c r="D12">
-        <v>0.9667298158230199</v>
+        <v>0.9957300825032621</v>
       </c>
       <c r="E12">
-        <v>0.9254347242987404</v>
+        <v>0.9809020586287628</v>
       </c>
       <c r="F12">
-        <v>0.9149311591634806</v>
+        <v>0.9922515701987591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021748619606011</v>
+        <v>1.036384603254175</v>
       </c>
       <c r="J12">
-        <v>0.9662634295282211</v>
+        <v>0.9983165751055855</v>
       </c>
       <c r="K12">
-        <v>0.9825234375141098</v>
+        <v>1.01093954716596</v>
       </c>
       <c r="L12">
-        <v>0.942144910856841</v>
+        <v>0.9964045252533416</v>
       </c>
       <c r="M12">
-        <v>0.9318922359000656</v>
+        <v>1.00752873886093</v>
       </c>
       <c r="N12">
-        <v>0.9783352633221054</v>
+        <v>0.9997342991507473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9339075620600544</v>
+        <v>0.9677584007904708</v>
       </c>
       <c r="D13">
-        <v>0.9671590006228025</v>
+        <v>0.9962939323873792</v>
       </c>
       <c r="E13">
-        <v>0.925889656750484</v>
+        <v>0.9814867533034957</v>
       </c>
       <c r="F13">
-        <v>0.9155515231808001</v>
+        <v>0.9928683052777716</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021942009471578</v>
+        <v>1.036647056170891</v>
       </c>
       <c r="J13">
-        <v>0.9666946220433172</v>
+        <v>0.9988949861542689</v>
       </c>
       <c r="K13">
-        <v>0.9828973845877489</v>
+        <v>1.011448207047029</v>
       </c>
       <c r="L13">
-        <v>0.9425397675535816</v>
+        <v>0.9969321865191019</v>
       </c>
       <c r="M13">
-        <v>0.9324473358892519</v>
+        <v>1.008088926750072</v>
       </c>
       <c r="N13">
-        <v>0.9786343902651569</v>
+        <v>1.000313531609464</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.935744690669858</v>
+        <v>0.9700649717341813</v>
       </c>
       <c r="D14">
-        <v>0.968556565299028</v>
+        <v>0.9981279454880957</v>
       </c>
       <c r="E14">
-        <v>0.9273717143221629</v>
+        <v>0.9833884759800746</v>
       </c>
       <c r="F14">
-        <v>0.9175714731907003</v>
+        <v>0.994874334963981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022571130208641</v>
+        <v>1.037500099189979</v>
       </c>
       <c r="J14">
-        <v>0.9680982973087568</v>
+        <v>1.000775896943234</v>
       </c>
       <c r="K14">
-        <v>0.9841146455090736</v>
+        <v>1.013102267914626</v>
       </c>
       <c r="L14">
-        <v>0.9438258144227964</v>
+        <v>0.9986480013528691</v>
       </c>
       <c r="M14">
-        <v>0.9342546863512418</v>
+        <v>1.009910662243484</v>
       </c>
       <c r="N14">
-        <v>0.9796081039653464</v>
+        <v>1.002197113507493</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9368676750538203</v>
+        <v>0.9714730176670388</v>
       </c>
       <c r="D15">
-        <v>0.9694111048146271</v>
+        <v>0.9992478226201259</v>
       </c>
       <c r="E15">
-        <v>0.9282784128616697</v>
+        <v>0.9845496272007643</v>
       </c>
       <c r="F15">
-        <v>0.9188064639667426</v>
+        <v>0.9960992482225055</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022955332157547</v>
+        <v>1.038020501547237</v>
       </c>
       <c r="J15">
-        <v>0.968956250948344</v>
+        <v>1.001924060511811</v>
       </c>
       <c r="K15">
-        <v>0.9848586102658786</v>
+        <v>1.014111931278911</v>
       </c>
       <c r="L15">
-        <v>0.9446123698861622</v>
+        <v>0.9996953324644754</v>
       </c>
       <c r="M15">
-        <v>0.9353596197172943</v>
+        <v>1.011022764793023</v>
       </c>
       <c r="N15">
-        <v>0.9802032223520224</v>
+        <v>1.003346907600034</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.943273524167504</v>
+        <v>0.9794787278773589</v>
       </c>
       <c r="D16">
-        <v>0.9742891032970989</v>
+        <v>1.005619295530052</v>
       </c>
       <c r="E16">
-        <v>0.9334615921698509</v>
+        <v>0.9911548488382989</v>
       </c>
       <c r="F16">
-        <v>0.9258551450552042</v>
+        <v>1.003068356460913</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025141349676548</v>
+        <v>1.040974109626209</v>
       </c>
       <c r="J16">
-        <v>0.9738490479364603</v>
+        <v>1.008451400173393</v>
       </c>
       <c r="K16">
-        <v>0.9891005334440569</v>
+        <v>1.019851445869374</v>
       </c>
       <c r="L16">
-        <v>0.9491053758808983</v>
+        <v>1.005648509603811</v>
       </c>
       <c r="M16">
-        <v>0.9416647963943078</v>
+        <v>1.017345915339068</v>
       </c>
       <c r="N16">
-        <v>0.9835965612654417</v>
+        <v>1.009883516832632</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9471829455941145</v>
+        <v>0.9843438454207926</v>
       </c>
       <c r="D17">
-        <v>0.9772688073081579</v>
+        <v>1.009494582125775</v>
       </c>
       <c r="E17">
-        <v>0.9366341973843949</v>
+        <v>0.9951713494009806</v>
       </c>
       <c r="F17">
-        <v>0.9301604100416307</v>
+        <v>1.007307212389672</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0264704147328</v>
+        <v>1.042764290248668</v>
       </c>
       <c r="J17">
-        <v>0.9768338515445991</v>
+        <v>1.012417251979347</v>
       </c>
       <c r="K17">
-        <v>0.9916874916905599</v>
+        <v>1.02333816002669</v>
       </c>
       <c r="L17">
-        <v>0.9518526290681941</v>
+        <v>1.009264575389157</v>
       </c>
       <c r="M17">
-        <v>0.9455148023714657</v>
+        <v>1.021188321381908</v>
       </c>
       <c r="N17">
-        <v>0.9856661336060788</v>
+        <v>1.01385500060304</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.949426273946395</v>
+        <v>0.9871289412522437</v>
       </c>
       <c r="D18">
-        <v>0.9789795049006781</v>
+        <v>1.011714091331225</v>
       </c>
       <c r="E18">
-        <v>0.9384579659312187</v>
+        <v>0.9974713878814802</v>
       </c>
       <c r="F18">
-        <v>0.9326321927948453</v>
+        <v>1.009734991380787</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027231198999548</v>
+        <v>1.043787333530167</v>
       </c>
       <c r="J18">
-        <v>0.9785461204750187</v>
+        <v>1.014687178031685</v>
       </c>
       <c r="K18">
-        <v>0.993171220065346</v>
+        <v>1.025333642026447</v>
       </c>
       <c r="L18">
-        <v>0.9534308602811014</v>
+        <v>1.011333911678911</v>
       </c>
       <c r="M18">
-        <v>0.9477247700304836</v>
+        <v>1.023387775641917</v>
       </c>
       <c r="N18">
-        <v>0.9868531788754736</v>
+        <v>1.016128150210736</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9501851183345645</v>
+        <v>0.9880699908474838</v>
       </c>
       <c r="D19">
-        <v>0.9795583147117701</v>
+        <v>1.012464203195693</v>
       </c>
       <c r="E19">
-        <v>0.9390754264718886</v>
+        <v>0.9982486562113367</v>
       </c>
       <c r="F19">
-        <v>0.9334685413799708</v>
+        <v>1.010555499089195</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027488225368861</v>
+        <v>1.044132701956471</v>
       </c>
       <c r="J19">
-        <v>0.9791252372292458</v>
+        <v>1.015454088638989</v>
       </c>
       <c r="K19">
-        <v>0.993672985245426</v>
+        <v>1.026007792956526</v>
       </c>
       <c r="L19">
-        <v>0.9539650188799095</v>
+        <v>1.01203298260276</v>
       </c>
       <c r="M19">
-        <v>0.9484724545100794</v>
+        <v>1.02413090501569</v>
       </c>
       <c r="N19">
-        <v>0.9872546234512261</v>
+        <v>1.016896149919068</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9467673737133826</v>
+        <v>0.9838273905209897</v>
       </c>
       <c r="D20">
-        <v>0.9769519720041655</v>
+        <v>1.009083089693881</v>
       </c>
       <c r="E20">
-        <v>0.9362966087641951</v>
+        <v>0.9947448985967117</v>
       </c>
       <c r="F20">
-        <v>0.9297026245614521</v>
+        <v>1.006857110849643</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026329328184812</v>
+        <v>1.042574437022735</v>
       </c>
       <c r="J20">
-        <v>0.9765166164585359</v>
+        <v>1.011996295842164</v>
       </c>
       <c r="K20">
-        <v>0.9914125727763956</v>
+        <v>1.022968082341131</v>
       </c>
       <c r="L20">
-        <v>0.9515604079761117</v>
+        <v>1.008880786341361</v>
       </c>
       <c r="M20">
-        <v>0.9451054701411228</v>
+        <v>1.020780448415625</v>
       </c>
       <c r="N20">
-        <v>0.9854461919883232</v>
+        <v>1.013433446659857</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9352055775336605</v>
+        <v>0.9693885011226903</v>
       </c>
       <c r="D21">
-        <v>0.9681463914375239</v>
+        <v>0.997590001960871</v>
       </c>
       <c r="E21">
-        <v>0.9269366386976127</v>
+        <v>0.9828306869046967</v>
       </c>
       <c r="F21">
-        <v>0.9169786577255552</v>
+        <v>0.9942859364643516</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022386587346755</v>
+        <v>1.037249989163302</v>
       </c>
       <c r="J21">
-        <v>0.9676863978238447</v>
+        <v>1.000224271358028</v>
       </c>
       <c r="K21">
-        <v>0.9837574581336176</v>
+        <v>1.012617176792882</v>
       </c>
       <c r="L21">
-        <v>0.9434483276438287</v>
+        <v>0.9981448051658073</v>
       </c>
       <c r="M21">
-        <v>0.9337242800884598</v>
+        <v>1.009376378239482</v>
       </c>
       <c r="N21">
-        <v>0.9793223810634731</v>
+        <v>1.001644704550684</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9275520337911886</v>
+        <v>0.9597476929553502</v>
       </c>
       <c r="D22">
-        <v>0.9623281890577586</v>
+        <v>0.9899294156143755</v>
       </c>
       <c r="E22">
-        <v>0.9207743078510012</v>
+        <v>0.9748862235375817</v>
       </c>
       <c r="F22">
-        <v>0.9085672349734356</v>
+        <v>0.9859068095352835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019760257255322</v>
+        <v>1.033679497105882</v>
       </c>
       <c r="J22">
-        <v>0.9618376570785383</v>
+        <v>0.9923622136364277</v>
       </c>
       <c r="K22">
-        <v>0.9786847863494783</v>
+        <v>1.005703047829484</v>
       </c>
       <c r="L22">
-        <v>0.9380974795276076</v>
+        <v>0.990972163809839</v>
       </c>
       <c r="M22">
-        <v>0.9261970974898469</v>
+        <v>1.001762722347442</v>
       </c>
       <c r="N22">
-        <v>0.9752646755276423</v>
+        <v>0.9937714818053283</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9316484975183326</v>
+        <v>0.9649166575904923</v>
       </c>
       <c r="D23">
-        <v>0.9654411622392094</v>
+        <v>0.9940352601998257</v>
       </c>
       <c r="E23">
-        <v>0.9240693180417239</v>
+        <v>0.9791445035385845</v>
       </c>
       <c r="F23">
-        <v>0.9130683269866229</v>
+        <v>0.9903977832237277</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021167426212149</v>
+        <v>1.035595184099954</v>
       </c>
       <c r="J23">
-        <v>0.9649683774341375</v>
+        <v>0.9965775805787889</v>
       </c>
       <c r="K23">
-        <v>0.9814002676402813</v>
+        <v>1.009410237782771</v>
       </c>
       <c r="L23">
-        <v>0.9409595556588815</v>
+        <v>0.9948180592938818</v>
       </c>
       <c r="M23">
-        <v>0.9302253003346811</v>
+        <v>1.005844607653323</v>
       </c>
       <c r="N23">
-        <v>0.9774368227397866</v>
+        <v>0.9979928350522569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9469552664822869</v>
+        <v>0.9840609160418277</v>
       </c>
       <c r="D24">
-        <v>0.9770952202773915</v>
+        <v>1.009269151062402</v>
       </c>
       <c r="E24">
-        <v>0.9364492328468511</v>
+        <v>0.9949377246646263</v>
       </c>
       <c r="F24">
-        <v>0.9299095993087457</v>
+        <v>1.007060629669792</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026393123558134</v>
+        <v>1.042660288515584</v>
       </c>
       <c r="J24">
-        <v>0.9766600496876173</v>
+        <v>1.012186640849088</v>
       </c>
       <c r="K24">
-        <v>0.9915368743409032</v>
+        <v>1.023135422118675</v>
       </c>
       <c r="L24">
-        <v>0.951692524543467</v>
+        <v>1.00905432659885</v>
       </c>
       <c r="M24">
-        <v>0.9452905394897275</v>
+        <v>1.020964876999431</v>
       </c>
       <c r="N24">
-        <v>0.9855456359850245</v>
+        <v>1.013624061978524</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.963283488290313</v>
+        <v>1.004235843411398</v>
       </c>
       <c r="D25">
-        <v>0.9895588820134784</v>
+        <v>1.025361982961712</v>
       </c>
       <c r="E25">
-        <v>0.9497772125133446</v>
+        <v>1.01160831674193</v>
       </c>
       <c r="F25">
-        <v>0.9479245582311623</v>
+        <v>1.024664684596944</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03189636198182</v>
+        <v>1.050038723535536</v>
       </c>
       <c r="J25">
-        <v>0.9891129982890051</v>
+        <v>1.028621490612459</v>
       </c>
       <c r="K25">
-        <v>1.00232147457283</v>
+        <v>1.037578942929942</v>
       </c>
       <c r="L25">
-        <v>0.9632086449957189</v>
+        <v>1.024029062112137</v>
       </c>
       <c r="M25">
-        <v>0.9613889147622791</v>
+        <v>1.036891809271295</v>
       </c>
       <c r="N25">
-        <v>0.9941751683367612</v>
+        <v>1.030082251113663</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019027407208063</v>
+        <v>1.010089181556302</v>
       </c>
       <c r="D2">
-        <v>1.037179703677241</v>
+        <v>1.025107163619353</v>
       </c>
       <c r="E2">
-        <v>1.02383988861968</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.037595007460298</v>
+        <v>0.9874732976617066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055389808264597</v>
+        <v>1.044682200346113</v>
       </c>
       <c r="J2">
-        <v>1.04065353298763</v>
+        <v>1.031972258307629</v>
       </c>
       <c r="K2">
-        <v>1.048144271878434</v>
+        <v>1.036227455477069</v>
       </c>
       <c r="L2">
-        <v>1.034976793971949</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.048554299177648</v>
+        <v>0.9991099527337959</v>
       </c>
       <c r="N2">
-        <v>1.042131380369101</v>
+        <v>1.033437777283298</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.029143919325343</v>
+        <v>1.017327310699</v>
       </c>
       <c r="D3">
-        <v>1.045268731198893</v>
+        <v>1.030725855103566</v>
       </c>
       <c r="E3">
-        <v>1.032206356738739</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.046447899815855</v>
+        <v>0.9974622215456136</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059013803854032</v>
+        <v>1.047384073436136</v>
       </c>
       <c r="J3">
-        <v>1.048870435649845</v>
+        <v>1.037356508055071</v>
       </c>
       <c r="K3">
-        <v>1.055353388987473</v>
+        <v>1.04098012612719</v>
       </c>
       <c r="L3">
-        <v>1.042443090090521</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.056519060002079</v>
+        <v>1.008127677037346</v>
       </c>
       <c r="N3">
-        <v>1.050359951975588</v>
+        <v>1.038829673282963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035436247321013</v>
+        <v>1.021855168964994</v>
       </c>
       <c r="D4">
-        <v>1.050301743107821</v>
+        <v>1.034242463759801</v>
       </c>
       <c r="E4">
-        <v>1.03740938536152</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.051957461815279</v>
+        <v>1.003702741927972</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061250747987102</v>
+        <v>1.049061159409842</v>
       </c>
       <c r="J4">
-        <v>1.053974963528534</v>
+        <v>1.040715871033403</v>
       </c>
       <c r="K4">
-        <v>1.059828732296742</v>
+        <v>1.043944457830306</v>
       </c>
       <c r="L4">
-        <v>1.047076341137556</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.061466780011737</v>
+        <v>1.013756682600525</v>
       </c>
       <c r="N4">
-        <v>1.055471728869362</v>
+        <v>1.042193806942049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.038025292648088</v>
+        <v>1.023723655341704</v>
       </c>
       <c r="D5">
-        <v>1.052372888684819</v>
+        <v>1.035693989374795</v>
       </c>
       <c r="E5">
-        <v>1.03954988401455</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.054225048002899</v>
+        <v>1.006276516073177</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062166971368524</v>
+        <v>1.049750054238132</v>
       </c>
       <c r="J5">
-        <v>1.056073691508296</v>
+        <v>1.042100039644471</v>
       </c>
       <c r="K5">
-        <v>1.061667981876267</v>
+        <v>1.04516559820702</v>
       </c>
       <c r="L5">
-        <v>1.048980068829434</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.063500960011993</v>
+        <v>1.016077059967763</v>
       </c>
       <c r="N5">
-        <v>1.057573437283583</v>
+        <v>1.043579941231311</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C6">
-        <v>1.038456827296727</v>
+        <v>1.024035389907656</v>
       </c>
       <c r="D6">
-        <v>1.052718112159876</v>
+        <v>1.035936176995153</v>
       </c>
       <c r="E6">
-        <v>1.039906631942211</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.054603035181055</v>
+        <v>1.006705846188522</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062319436014698</v>
+        <v>1.049864799964759</v>
       </c>
       <c r="J6">
-        <v>1.056423406065411</v>
+        <v>1.042330846424702</v>
       </c>
       <c r="K6">
-        <v>1.061974411604112</v>
+        <v>1.045369204190827</v>
       </c>
       <c r="L6">
-        <v>1.049297216482364</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.063839913400645</v>
+        <v>1.0164640497934</v>
       </c>
       <c r="N6">
-        <v>1.057923648475482</v>
+        <v>1.043811075783644</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035471057739824</v>
+        <v>1.021880270584088</v>
       </c>
       <c r="D7">
-        <v>1.050329589396865</v>
+        <v>1.034261962583534</v>
       </c>
       <c r="E7">
-        <v>1.037438166495352</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.051987947859073</v>
+        <v>1.00373732373639</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0612630835813</v>
+        <v>1.049070426803535</v>
       </c>
       <c r="J7">
-        <v>1.054003187879793</v>
+        <v>1.040734474650655</v>
       </c>
       <c r="K7">
-        <v>1.059853470280357</v>
+        <v>1.043960871378168</v>
       </c>
       <c r="L7">
-        <v>1.047101948008716</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.061494136647685</v>
+        <v>1.013787864486354</v>
       </c>
       <c r="N7">
-        <v>1.055499993302437</v>
+        <v>1.042212436978572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022501746399463</v>
+        <v>1.01256900394528</v>
       </c>
       <c r="D8">
-        <v>1.039957261675932</v>
+        <v>1.027031722145867</v>
       </c>
       <c r="E8">
-        <v>1.026713274692543</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.04063460491989</v>
+        <v>0.9908975877939167</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056637992548923</v>
+        <v>1.0456106220446</v>
       </c>
       <c r="J8">
-        <v>1.043476764035182</v>
+        <v>1.03381878406974</v>
       </c>
       <c r="K8">
-        <v>1.050621878648537</v>
+        <v>1.037857569617784</v>
       </c>
       <c r="L8">
-        <v>1.037543158372739</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.051290910237702</v>
+        <v>1.002202285264779</v>
       </c>
       <c r="N8">
-        <v>1.044958620728569</v>
+        <v>1.035286925323791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9974697285784886</v>
+        <v>0.9948547101422117</v>
       </c>
       <c r="D9">
-        <v>1.019961097099116</v>
+        <v>1.013295694391709</v>
       </c>
       <c r="E9">
-        <v>1.006015227537734</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>1.018756260342123</v>
+        <v>0.9663776811011836</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047573332770399</v>
+        <v>1.038923173378632</v>
       </c>
       <c r="J9">
-        <v>1.023112154742297</v>
+        <v>1.020590479415943</v>
       </c>
       <c r="K9">
-        <v>1.032738413049339</v>
+        <v>1.026176679392303</v>
       </c>
       <c r="L9">
-        <v>1.019011459960867</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>1.031552187199119</v>
+        <v>0.9800408758985104</v>
       </c>
       <c r="N9">
-        <v>1.024565091354635</v>
+        <v>1.022039834960078</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9789215337934506</v>
+        <v>0.981981897572444</v>
       </c>
       <c r="D10">
-        <v>1.005175619937911</v>
+        <v>1.003334053391139</v>
       </c>
       <c r="E10">
-        <v>0.9906949581312841</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>1.002583060954014</v>
+        <v>0.9484509363951398</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040768844092888</v>
+        <v>1.033994046713984</v>
       </c>
       <c r="J10">
-        <v>1.007997150866275</v>
+        <v>1.010929091651237</v>
       </c>
       <c r="K10">
-        <v>1.019452051546751</v>
+        <v>1.017643370275468</v>
       </c>
       <c r="L10">
-        <v>1.005234275257015</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.016905833532091</v>
+        <v>0.9638177731340634</v>
       </c>
       <c r="N10">
-        <v>1.009428622439394</v>
+        <v>1.012364726916569</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9703345087337734</v>
+        <v>0.976105175801276</v>
       </c>
       <c r="D11">
-        <v>0.9983423017254833</v>
+        <v>0.9987929661947837</v>
       </c>
       <c r="E11">
-        <v>0.9836107366997301</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9951087961805201</v>
+        <v>0.9402285035429772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037599738014861</v>
+        <v>1.031727905835669</v>
       </c>
       <c r="J11">
-        <v>1.000995688052987</v>
+        <v>1.006506937118189</v>
       </c>
       <c r="K11">
-        <v>1.013295547664226</v>
+        <v>1.013737681360591</v>
       </c>
       <c r="L11">
-        <v>0.9988484935223405</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.010123546709974</v>
+        <v>0.9563730817634368</v>
       </c>
       <c r="N11">
-        <v>1.002417216745833</v>
+        <v>1.007936292416856</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9670491086752653</v>
+        <v>0.9738716470372321</v>
       </c>
       <c r="D12">
-        <v>0.9957300825032621</v>
+        <v>0.9970682334592966</v>
       </c>
       <c r="E12">
-        <v>0.9809020586287628</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9922515701987591</v>
+        <v>0.9370963386650165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036384603254175</v>
+        <v>1.030864297497786</v>
       </c>
       <c r="J12">
-        <v>0.9983165751055855</v>
+        <v>1.004824500050628</v>
       </c>
       <c r="K12">
-        <v>1.01093954716596</v>
+        <v>1.012251817860531</v>
       </c>
       <c r="L12">
-        <v>0.9964045252533416</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.00752873886093</v>
+        <v>0.9535367633971586</v>
       </c>
       <c r="N12">
-        <v>0.9997342991507473</v>
+        <v>1.006251466095681</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9677584007904708</v>
+        <v>0.9743531313429127</v>
       </c>
       <c r="D13">
-        <v>0.9962939323873792</v>
+        <v>0.9974399802577539</v>
       </c>
       <c r="E13">
-        <v>0.9814867533034957</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9928683052777716</v>
+        <v>0.9377718880606623</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036647056170891</v>
+        <v>1.031050570680732</v>
       </c>
       <c r="J13">
-        <v>0.9988949861542689</v>
+        <v>1.005187263395231</v>
       </c>
       <c r="K13">
-        <v>1.011448207047029</v>
+        <v>1.01257219172051</v>
       </c>
       <c r="L13">
-        <v>0.9969321865191019</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.008088926750072</v>
+        <v>0.9541485206693723</v>
       </c>
       <c r="N13">
-        <v>1.000313531609464</v>
+        <v>1.006614744605843</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9700649717341813</v>
+        <v>0.9759216179572582</v>
       </c>
       <c r="D14">
-        <v>0.9981279454880957</v>
+        <v>0.9986511979157505</v>
       </c>
       <c r="E14">
-        <v>0.9833884759800746</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.994874334963981</v>
+        <v>0.9399712458548707</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037500099189979</v>
+        <v>1.031656978861514</v>
       </c>
       <c r="J14">
-        <v>1.000775896943234</v>
+        <v>1.00636870480542</v>
       </c>
       <c r="K14">
-        <v>1.013102267914626</v>
+        <v>1.01361559789381</v>
       </c>
       <c r="L14">
-        <v>0.9986480013528691</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.009910662243484</v>
+        <v>0.9561401307792479</v>
       </c>
       <c r="N14">
-        <v>1.002197113507493</v>
+        <v>1.007797863798347</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9714730176670388</v>
+        <v>0.9768811327823973</v>
       </c>
       <c r="D15">
-        <v>0.9992478226201259</v>
+        <v>0.9993923140331756</v>
       </c>
       <c r="E15">
-        <v>0.9845496272007643</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9960992482225055</v>
+        <v>0.941315715753779</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038020501547237</v>
+        <v>1.032027642354631</v>
       </c>
       <c r="J15">
-        <v>1.001924060511811</v>
+        <v>1.00709121825635</v>
       </c>
       <c r="K15">
-        <v>1.014111931278911</v>
+        <v>1.0142537081319</v>
       </c>
       <c r="L15">
-        <v>0.9996953324644754</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.011022764793023</v>
+        <v>0.9573575538625709</v>
       </c>
       <c r="N15">
-        <v>1.003346907600034</v>
+        <v>1.008521403301251</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9794787278773589</v>
+        <v>0.982365116107059</v>
       </c>
       <c r="D16">
-        <v>1.005619295530052</v>
+        <v>1.003630326471251</v>
       </c>
       <c r="E16">
-        <v>0.9911548488382989</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.003068356460913</v>
+        <v>0.9489862182114353</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040974109626209</v>
+        <v>1.034141497902822</v>
       </c>
       <c r="J16">
-        <v>1.008451400173393</v>
+        <v>1.011217220643555</v>
       </c>
       <c r="K16">
-        <v>1.019851445869374</v>
+        <v>1.01789785614454</v>
       </c>
       <c r="L16">
-        <v>1.005648509603811</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.017345915339068</v>
+        <v>0.9643023589548094</v>
       </c>
       <c r="N16">
-        <v>1.009883516832632</v>
+        <v>1.012653265085106</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9843438454207926</v>
+        <v>0.9857206366392884</v>
       </c>
       <c r="D17">
-        <v>1.009494582125775</v>
+        <v>1.006225301627328</v>
       </c>
       <c r="E17">
-        <v>0.9951713494009806</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.007307212389672</v>
+        <v>0.9536687746844119</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042764290248668</v>
+        <v>1.035430825765295</v>
       </c>
       <c r="J17">
-        <v>1.012417251979347</v>
+        <v>1.013738829155258</v>
       </c>
       <c r="K17">
-        <v>1.02333816002669</v>
+        <v>1.0201250521488</v>
       </c>
       <c r="L17">
-        <v>1.009264575389157</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.021188321381908</v>
+        <v>0.9685410378495285</v>
       </c>
       <c r="N17">
-        <v>1.01385500060304</v>
+        <v>1.015178454570127</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9871289412522437</v>
+        <v>0.9876490390170076</v>
       </c>
       <c r="D18">
-        <v>1.011714091331225</v>
+        <v>1.007717228558358</v>
       </c>
       <c r="E18">
-        <v>0.9974713878814802</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.009734991380787</v>
+        <v>0.9563563199883907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043787333530167</v>
+        <v>1.036170308278809</v>
       </c>
       <c r="J18">
-        <v>1.014687178031685</v>
+        <v>1.015186910382439</v>
       </c>
       <c r="K18">
-        <v>1.025333642026447</v>
+        <v>1.021404069038948</v>
       </c>
       <c r="L18">
-        <v>1.011333911678911</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.023387775641917</v>
+        <v>0.9709734691938816</v>
       </c>
       <c r="N18">
-        <v>1.016128150210736</v>
+        <v>1.016628592238749</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9880699908474838</v>
+        <v>0.9883018302747705</v>
       </c>
       <c r="D19">
-        <v>1.012464203195693</v>
+        <v>1.008222364805034</v>
       </c>
       <c r="E19">
-        <v>0.9982486562113367</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.010555499089195</v>
+        <v>0.9572655336922771</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044132701956471</v>
+        <v>1.036420379415045</v>
       </c>
       <c r="J19">
-        <v>1.015454088638989</v>
+        <v>1.015676923786825</v>
       </c>
       <c r="K19">
-        <v>1.026007792956526</v>
+        <v>1.021836872699504</v>
       </c>
       <c r="L19">
-        <v>1.01203298260276</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.02413090501569</v>
+        <v>0.9717963131494707</v>
       </c>
       <c r="N19">
-        <v>1.016896149919068</v>
+        <v>1.017119301518374</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9838273905209897</v>
+        <v>0.9853636362949023</v>
       </c>
       <c r="D20">
-        <v>1.009083089693881</v>
+        <v>1.005949152919107</v>
       </c>
       <c r="E20">
-        <v>0.9947448985967117</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.006857110849643</v>
+        <v>0.9531709609715662</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042574437022735</v>
+        <v>1.035293806110248</v>
       </c>
       <c r="J20">
-        <v>1.011996295842164</v>
+        <v>1.013470662250718</v>
       </c>
       <c r="K20">
-        <v>1.022968082341131</v>
+        <v>1.019888194097599</v>
       </c>
       <c r="L20">
-        <v>1.008880786341361</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.020780448415625</v>
+        <v>0.9680904495138195</v>
       </c>
       <c r="N20">
-        <v>1.013433446659857</v>
+        <v>1.014909906837824</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9693885011226903</v>
+        <v>0.9754611819441806</v>
       </c>
       <c r="D21">
-        <v>0.997590001960871</v>
+        <v>0.9982956061562789</v>
       </c>
       <c r="E21">
-        <v>0.9828306869046967</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9942859364643516</v>
+        <v>0.9393258220529417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037249989163302</v>
+        <v>1.031479028592624</v>
       </c>
       <c r="J21">
-        <v>1.000224271358028</v>
+        <v>1.00602193530964</v>
       </c>
       <c r="K21">
-        <v>1.012617176792882</v>
+        <v>1.013309340907115</v>
       </c>
       <c r="L21">
-        <v>0.9981448051658073</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.009376378239482</v>
+        <v>0.9555556829088947</v>
       </c>
       <c r="N21">
-        <v>1.001644704550684</v>
+        <v>1.007450601850108</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9597476929553502</v>
+        <v>0.9689388100331083</v>
       </c>
       <c r="D22">
-        <v>0.9899294156143755</v>
+        <v>0.9932614673025346</v>
       </c>
       <c r="E22">
-        <v>0.9748862235375817</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9859068095352835</v>
+        <v>0.930163952533786</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033679497105882</v>
+        <v>1.028952742173245</v>
       </c>
       <c r="J22">
-        <v>0.9923622136364277</v>
+        <v>1.0011055472816</v>
       </c>
       <c r="K22">
-        <v>1.005703047829484</v>
+        <v>1.008967608300637</v>
       </c>
       <c r="L22">
-        <v>0.990972163809839</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.001762722347442</v>
+        <v>0.9472585696003332</v>
       </c>
       <c r="N22">
-        <v>0.9937714818053283</v>
+        <v>1.002527231987151</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9649166575904923</v>
+        <v>0.9724264974476219</v>
       </c>
       <c r="D23">
-        <v>0.9940352601998257</v>
+        <v>0.9959526412779489</v>
       </c>
       <c r="E23">
-        <v>0.9791445035385845</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9903977832237277</v>
+        <v>0.93506755195944</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035595184099954</v>
+        <v>1.030304871305209</v>
       </c>
       <c r="J23">
-        <v>0.9965775805787889</v>
+        <v>1.00373542963254</v>
       </c>
       <c r="K23">
-        <v>1.009410237782771</v>
+        <v>1.011290024191312</v>
       </c>
       <c r="L23">
-        <v>0.9948180592938818</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.005844607653323</v>
+        <v>0.9516995054680401</v>
       </c>
       <c r="N23">
-        <v>0.9979928350522569</v>
+        <v>1.005160849072681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9840609160418277</v>
+        <v>0.9855250380533078</v>
       </c>
       <c r="D24">
-        <v>1.009269151062402</v>
+        <v>1.006073999348625</v>
       </c>
       <c r="E24">
-        <v>0.9949377246646263</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.007060629669792</v>
+        <v>0.9533960359898842</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042660288515584</v>
+        <v>1.035355758058873</v>
       </c>
       <c r="J24">
-        <v>1.012186640849088</v>
+        <v>1.013591905282315</v>
       </c>
       <c r="K24">
-        <v>1.023135422118675</v>
+        <v>1.019995281820018</v>
       </c>
       <c r="L24">
-        <v>1.00905432659885</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.020964876999431</v>
+        <v>0.9682941737661356</v>
       </c>
       <c r="N24">
-        <v>1.013624061978524</v>
+        <v>1.015031322048433</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004235843411398</v>
+        <v>0.9996065927537239</v>
       </c>
       <c r="D25">
-        <v>1.025361982961712</v>
+        <v>1.016977522599934</v>
       </c>
       <c r="E25">
-        <v>1.01160831674193</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.024664684596944</v>
+        <v>0.9729699393119901</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050038723535536</v>
+        <v>1.04072901186571</v>
       </c>
       <c r="J25">
-        <v>1.028621490612459</v>
+        <v>1.024147203878665</v>
       </c>
       <c r="K25">
-        <v>1.037578942929942</v>
+        <v>1.029317879595109</v>
       </c>
       <c r="L25">
-        <v>1.024029062112137</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.036891809271295</v>
+        <v>0.9860028743180974</v>
       </c>
       <c r="N25">
-        <v>1.030082251113663</v>
+        <v>1.025601610379499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010089181556302</v>
+        <v>1.045522924504251</v>
       </c>
       <c r="D2">
-        <v>1.025107163619353</v>
+        <v>1.046990129193348</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>0.9874732976617066</v>
+        <v>1.044360905294209</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044682200346113</v>
+        <v>1.041598837292934</v>
       </c>
       <c r="J2">
-        <v>1.031972258307629</v>
+        <v>1.050582205824155</v>
       </c>
       <c r="K2">
-        <v>1.036227455477069</v>
+        <v>1.049754019732186</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>0.9991099527337959</v>
+        <v>1.047132172547802</v>
       </c>
       <c r="N2">
-        <v>1.033437777283298</v>
+        <v>1.052074153059889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017327310699</v>
+        <v>1.046885353185557</v>
       </c>
       <c r="D3">
-        <v>1.030725855103566</v>
+        <v>1.048052940320931</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>0.9974622215456136</v>
+        <v>1.046349716357448</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047384073436136</v>
+        <v>1.042022527221976</v>
       </c>
       <c r="J3">
-        <v>1.037356508055071</v>
+        <v>1.051590292994987</v>
       </c>
       <c r="K3">
-        <v>1.04098012612719</v>
+        <v>1.050627933206289</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.008127677037346</v>
+        <v>1.048929136109861</v>
       </c>
       <c r="N3">
-        <v>1.038829673282963</v>
+        <v>1.053083671830132</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.021855168964994</v>
+        <v>1.047764708138949</v>
       </c>
       <c r="D4">
-        <v>1.034242463759801</v>
+        <v>1.04873868275095</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.003702741927972</v>
+        <v>1.047634105754515</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049061159409842</v>
+        <v>1.042294370644415</v>
       </c>
       <c r="J4">
-        <v>1.040715871033403</v>
+        <v>1.052239922375405</v>
       </c>
       <c r="K4">
-        <v>1.043944457830306</v>
+        <v>1.051190853804473</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.013756682600525</v>
+        <v>1.050089000700849</v>
       </c>
       <c r="N4">
-        <v>1.042193806942049</v>
+        <v>1.053734223758783</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023723655341704</v>
+        <v>1.048133864169676</v>
       </c>
       <c r="D5">
-        <v>1.035693989374795</v>
+        <v>1.049026503752941</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.006276516073177</v>
+        <v>1.048173480392591</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049750054238132</v>
+        <v>1.042408103201223</v>
       </c>
       <c r="J5">
-        <v>1.042100039644471</v>
+        <v>1.052512393994282</v>
       </c>
       <c r="K5">
-        <v>1.04516559820702</v>
+        <v>1.051426898441041</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.016077059967763</v>
+        <v>1.050575931016366</v>
       </c>
       <c r="N5">
-        <v>1.043579941231311</v>
+        <v>1.054007082318613</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024035389907656</v>
+        <v>1.048195816562565</v>
       </c>
       <c r="D6">
-        <v>1.035936176995153</v>
+        <v>1.049074803061212</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.006705846188522</v>
+        <v>1.048264010087945</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049864799964759</v>
+        <v>1.042427167212126</v>
       </c>
       <c r="J6">
-        <v>1.042330846424702</v>
+        <v>1.052558106278151</v>
       </c>
       <c r="K6">
-        <v>1.045369204190827</v>
+        <v>1.051466495931888</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.0164640497934</v>
+        <v>1.050657649517191</v>
       </c>
       <c r="N6">
-        <v>1.043811075783644</v>
+        <v>1.054052859519169</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.021880270584088</v>
+        <v>1.047769642871539</v>
       </c>
       <c r="D7">
-        <v>1.034261962583534</v>
+        <v>1.048742530449616</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.00373732373639</v>
+        <v>1.047641315173543</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049070426803535</v>
+        <v>1.042295892503312</v>
       </c>
       <c r="J7">
-        <v>1.040734474650655</v>
+        <v>1.052243565631826</v>
       </c>
       <c r="K7">
-        <v>1.043960871378168</v>
+        <v>1.05119401022334</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.013787864486354</v>
+        <v>1.050095509727894</v>
       </c>
       <c r="N7">
-        <v>1.042212436978572</v>
+        <v>1.053737872189047</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.01256900394528</v>
+        <v>1.045983829999774</v>
       </c>
       <c r="D8">
-        <v>1.027031722145867</v>
+        <v>1.047349722124808</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>0.9908975877939167</v>
+        <v>1.045033562046783</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0456106220446</v>
+        <v>1.041742505968483</v>
       </c>
       <c r="J8">
-        <v>1.03381878406974</v>
+        <v>1.050923450603902</v>
       </c>
       <c r="K8">
-        <v>1.037857569617784</v>
+        <v>1.050049896335301</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.002202285264779</v>
+        <v>1.047740072672029</v>
       </c>
       <c r="N8">
-        <v>1.035286925323791</v>
+        <v>1.052415882446364</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9948547101422117</v>
+        <v>1.042819557270246</v>
       </c>
       <c r="D9">
-        <v>1.013295694391709</v>
+        <v>1.044880081492271</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>0.9663776811011836</v>
+        <v>1.040418427378897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038923173378632</v>
+        <v>1.040749516501381</v>
       </c>
       <c r="J9">
-        <v>1.020590479415943</v>
+        <v>1.048576483126335</v>
       </c>
       <c r="K9">
-        <v>1.026176679392303</v>
+        <v>1.048013960838179</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>0.9800408758985104</v>
+        <v>1.043566658727125</v>
       </c>
       <c r="N9">
-        <v>1.022039834960078</v>
+        <v>1.050065582005778</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.981981897572444</v>
+        <v>1.040697776798541</v>
       </c>
       <c r="D10">
-        <v>1.003334053391139</v>
+        <v>1.043222968567604</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9484509363951398</v>
+        <v>1.037327197545815</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033994046713984</v>
+        <v>1.04007532011024</v>
       </c>
       <c r="J10">
-        <v>1.010929091651237</v>
+        <v>1.046997454677648</v>
       </c>
       <c r="K10">
-        <v>1.017643370275468</v>
+        <v>1.046642957282836</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>0.9638177731340634</v>
+        <v>1.040768060892111</v>
       </c>
       <c r="N10">
-        <v>1.012364726916569</v>
+        <v>1.048484311155577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.976105175801276</v>
+        <v>1.039775992458743</v>
       </c>
       <c r="D11">
-        <v>0.9987929661947837</v>
+        <v>1.042502801128097</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9402285035429772</v>
+        <v>1.035984989676868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031727905835669</v>
+        <v>1.039780445825944</v>
       </c>
       <c r="J11">
-        <v>1.006506937118189</v>
+        <v>1.046310210084931</v>
       </c>
       <c r="K11">
-        <v>1.013737681360591</v>
+        <v>1.046045963945716</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>0.9563730817634368</v>
+        <v>1.039552148878867</v>
       </c>
       <c r="N11">
-        <v>1.007936292416856</v>
+        <v>1.04779609059671</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9738716470372321</v>
+        <v>1.039433133559911</v>
       </c>
       <c r="D12">
-        <v>0.9970682334592966</v>
+        <v>1.042234896847177</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9370963386650165</v>
+        <v>1.035485859676985</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864297497786</v>
+        <v>1.039670470284591</v>
       </c>
       <c r="J12">
-        <v>1.004824500050628</v>
+        <v>1.046054400372432</v>
       </c>
       <c r="K12">
-        <v>1.012251817860531</v>
+        <v>1.045823705188535</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>0.9535367633971586</v>
+        <v>1.039099870159579</v>
       </c>
       <c r="N12">
-        <v>1.006251466095681</v>
+        <v>1.047539917605078</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9743531313429127</v>
+        <v>1.039506699267289</v>
       </c>
       <c r="D13">
-        <v>0.9974399802577539</v>
+        <v>1.042292381537395</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9377718880606623</v>
+        <v>1.035592951074982</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031050570680732</v>
+        <v>1.039694080663026</v>
       </c>
       <c r="J13">
-        <v>1.005187263395231</v>
+        <v>1.046109296836516</v>
       </c>
       <c r="K13">
-        <v>1.01257219172051</v>
+        <v>1.045871403587703</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>0.9541485206693723</v>
+        <v>1.039196914512514</v>
       </c>
       <c r="N13">
-        <v>1.006614744605843</v>
+        <v>1.047594892028437</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9759216179572582</v>
+        <v>1.039747661226231</v>
       </c>
       <c r="D14">
-        <v>0.9986511979157505</v>
+        <v>1.042480664321101</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9399712458548707</v>
+        <v>1.035943743269652</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031656978861514</v>
+        <v>1.039771364336944</v>
       </c>
       <c r="J14">
-        <v>1.00636870480542</v>
+        <v>1.046289075767101</v>
       </c>
       <c r="K14">
-        <v>1.01361559789381</v>
+        <v>1.046027602389225</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>0.9561401307792479</v>
+        <v>1.039514776439135</v>
       </c>
       <c r="N14">
-        <v>1.007797863798347</v>
+        <v>1.047774926265725</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9768811327823973</v>
+        <v>1.039896063623031</v>
       </c>
       <c r="D15">
-        <v>0.9993923140331756</v>
+        <v>1.042596618062403</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.941315715753779</v>
+        <v>1.036159801206095</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032027642354631</v>
+        <v>1.03981892212629</v>
       </c>
       <c r="J15">
-        <v>1.00709121825635</v>
+        <v>1.046399772159005</v>
       </c>
       <c r="K15">
-        <v>1.0142537081319</v>
+        <v>1.046123773984868</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>0.9573575538625709</v>
+        <v>1.039710536972634</v>
       </c>
       <c r="N15">
-        <v>1.008521403301251</v>
+        <v>1.047885779859201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.982365116107059</v>
+        <v>1.040758887657631</v>
       </c>
       <c r="D16">
-        <v>1.003630326471251</v>
+        <v>1.043270707738627</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9489862182114353</v>
+        <v>1.037416196069566</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034141497902822</v>
+        <v>1.040094827605239</v>
       </c>
       <c r="J16">
-        <v>1.011217220643555</v>
+        <v>1.047042990068766</v>
       </c>
       <c r="K16">
-        <v>1.01789785614454</v>
+        <v>1.046682506796385</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>0.9643023589548094</v>
+        <v>1.0408486689731</v>
       </c>
       <c r="N16">
-        <v>1.012653265085106</v>
+        <v>1.048529911212173</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9857206366392884</v>
+        <v>1.041299293256832</v>
       </c>
       <c r="D17">
-        <v>1.006225301627328</v>
+        <v>1.04369283796149</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>0.9536687746844119</v>
+        <v>1.038203298325264</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035430825765295</v>
+        <v>1.040267105156239</v>
       </c>
       <c r="J17">
-        <v>1.013738829155258</v>
+        <v>1.047445516740084</v>
       </c>
       <c r="K17">
-        <v>1.0201250521488</v>
+        <v>1.047032086000965</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>0.9685410378495285</v>
+        <v>1.041561478045885</v>
       </c>
       <c r="N17">
-        <v>1.015178454570127</v>
+        <v>1.048933009517535</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9876490390170076</v>
+        <v>1.041614210159196</v>
       </c>
       <c r="D18">
-        <v>1.007717228558358</v>
+        <v>1.043938806454663</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>0.9563563199883907</v>
+        <v>1.038662047613236</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036170308278809</v>
+        <v>1.040367308071248</v>
       </c>
       <c r="J18">
-        <v>1.015186910382439</v>
+        <v>1.04767996517772</v>
       </c>
       <c r="K18">
-        <v>1.021404069038948</v>
+        <v>1.047235667882721</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>0.9709734691938816</v>
+        <v>1.04197685314038</v>
       </c>
       <c r="N18">
-        <v>1.016628592238749</v>
+        <v>1.049167790898844</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9883018302747705</v>
+        <v>1.041721539381037</v>
       </c>
       <c r="D19">
-        <v>1.008222364805034</v>
+        <v>1.044022632676784</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>0.9572655336922771</v>
+        <v>1.038818409817154</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036420379415045</v>
+        <v>1.040401426680771</v>
       </c>
       <c r="J19">
-        <v>1.015676923786825</v>
+        <v>1.047759848863336</v>
       </c>
       <c r="K19">
-        <v>1.021836872699504</v>
+        <v>1.04730502968144</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>0.9717963131494707</v>
+        <v>1.042118418985083</v>
       </c>
       <c r="N19">
-        <v>1.017119301518374</v>
+        <v>1.049247788028456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9853636362949023</v>
+        <v>1.041241343185282</v>
       </c>
       <c r="D20">
-        <v>1.005949152919107</v>
+        <v>1.043647573598273</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180355766</v>
       </c>
       <c r="F20">
-        <v>0.9531709609715662</v>
+        <v>1.038118886481553</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035293806110248</v>
+        <v>1.040248650775101</v>
       </c>
       <c r="J20">
-        <v>1.013470662250718</v>
+        <v>1.047402364517272</v>
       </c>
       <c r="K20">
-        <v>1.019888194097599</v>
+        <v>1.046994612792471</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193490043</v>
       </c>
       <c r="M20">
-        <v>0.9680904495138195</v>
+        <v>1.041485041306244</v>
       </c>
       <c r="N20">
-        <v>1.014909906837824</v>
+        <v>1.048889796013617</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9754611819441806</v>
+        <v>1.039676716915874</v>
       </c>
       <c r="D21">
-        <v>0.9982956061562789</v>
+        <v>1.042425230892024</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668255</v>
       </c>
       <c r="F21">
-        <v>0.9393258220529417</v>
+        <v>1.035840459729954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031479028592624</v>
+        <v>1.039748618568041</v>
       </c>
       <c r="J21">
-        <v>1.00602193530964</v>
+        <v>1.04623615023011</v>
       </c>
       <c r="K21">
-        <v>1.013309340907115</v>
+        <v>1.045981619839452</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198107</v>
       </c>
       <c r="M21">
-        <v>0.9555556829088947</v>
+        <v>1.03942119170128</v>
       </c>
       <c r="N21">
-        <v>1.007450601850108</v>
+        <v>1.047721925568401</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9689388100331083</v>
+        <v>1.038690266187285</v>
       </c>
       <c r="D22">
-        <v>0.9932614673025346</v>
+        <v>1.04165436577123</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241496</v>
       </c>
       <c r="F22">
-        <v>0.930163952533786</v>
+        <v>1.034404589677703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028952742173245</v>
+        <v>1.039431645454328</v>
       </c>
       <c r="J22">
-        <v>1.0011055472816</v>
+        <v>1.045499796932231</v>
       </c>
       <c r="K22">
-        <v>1.008967608300637</v>
+        <v>1.045341763339521</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.991467000034148</v>
       </c>
       <c r="M22">
-        <v>0.9472585696003332</v>
+        <v>1.038119884992055</v>
       </c>
       <c r="N22">
-        <v>1.002527231987151</v>
+        <v>1.046984526564377</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9724264974476219</v>
+        <v>1.039213462619263</v>
       </c>
       <c r="D23">
-        <v>0.9959526412779489</v>
+        <v>1.042063239286394</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636459</v>
       </c>
       <c r="F23">
-        <v>0.93506755195944</v>
+        <v>1.035166094403414</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030304871305209</v>
+        <v>1.039599925080307</v>
       </c>
       <c r="J23">
-        <v>1.00373542963254</v>
+        <v>1.04589044918861</v>
       </c>
       <c r="K23">
-        <v>1.011290024191312</v>
+        <v>1.045681245165664</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887607</v>
       </c>
       <c r="M23">
-        <v>0.9516995054680401</v>
+        <v>1.038810087685142</v>
       </c>
       <c r="N23">
-        <v>1.005160849072681</v>
+        <v>1.047375733591769</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9855250380533078</v>
+        <v>1.041267529232196</v>
       </c>
       <c r="D24">
-        <v>1.006073999348625</v>
+        <v>1.043668027397281</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347241</v>
       </c>
       <c r="F24">
-        <v>0.9533960359898842</v>
+        <v>1.038157029654218</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035355758058873</v>
+        <v>1.040256990392129</v>
       </c>
       <c r="J24">
-        <v>1.013591905282315</v>
+        <v>1.04742186419548</v>
       </c>
       <c r="K24">
-        <v>1.019995281820018</v>
+        <v>1.047011546316648</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766438</v>
       </c>
       <c r="M24">
-        <v>0.9682941737661356</v>
+        <v>1.041519580997039</v>
       </c>
       <c r="N24">
-        <v>1.015031322048433</v>
+        <v>1.048909323383604</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9996065927537239</v>
+        <v>1.043639719675618</v>
       </c>
       <c r="D25">
-        <v>1.016977522599934</v>
+        <v>1.045520398424685</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607046</v>
       </c>
       <c r="F25">
-        <v>0.9729699393119901</v>
+        <v>1.041614022510185</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04072901186571</v>
+        <v>1.041008364143329</v>
       </c>
       <c r="J25">
-        <v>1.024147203878665</v>
+        <v>1.049185733980537</v>
       </c>
       <c r="K25">
-        <v>1.029317879595109</v>
+        <v>1.048542689370429</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426411</v>
       </c>
       <c r="M25">
-        <v>0.9860028743180974</v>
+        <v>1.044648391380145</v>
       </c>
       <c r="N25">
-        <v>1.025601610379499</v>
+        <v>1.050675698066075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045522924504251</v>
+        <v>1.010089181556301</v>
       </c>
       <c r="D2">
-        <v>1.046990129193348</v>
+        <v>1.025107163619352</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.044360905294209</v>
+        <v>0.9874732976617053</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041598837292934</v>
+        <v>1.044682200346112</v>
       </c>
       <c r="J2">
-        <v>1.050582205824155</v>
+        <v>1.031972258307627</v>
       </c>
       <c r="K2">
-        <v>1.049754019732186</v>
+        <v>1.036227455477068</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.047132172547802</v>
+        <v>0.9991099527337949</v>
       </c>
       <c r="N2">
-        <v>1.052074153059889</v>
+        <v>1.033437777283297</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046885353185557</v>
+        <v>1.017327310699</v>
       </c>
       <c r="D3">
-        <v>1.048052940320931</v>
+        <v>1.030725855103567</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.046349716357448</v>
+        <v>0.9974622215456135</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042022527221976</v>
+        <v>1.047384073436136</v>
       </c>
       <c r="J3">
-        <v>1.051590292994987</v>
+        <v>1.037356508055072</v>
       </c>
       <c r="K3">
-        <v>1.050627933206289</v>
+        <v>1.04098012612719</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048929136109861</v>
+        <v>1.008127677037346</v>
       </c>
       <c r="N3">
-        <v>1.053083671830132</v>
+        <v>1.038829673282964</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.047764708138949</v>
+        <v>1.021855168964994</v>
       </c>
       <c r="D4">
-        <v>1.04873868275095</v>
+        <v>1.034242463759801</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.047634105754515</v>
+        <v>1.003702741927973</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042294370644415</v>
+        <v>1.049061159409843</v>
       </c>
       <c r="J4">
-        <v>1.052239922375405</v>
+        <v>1.040715871033403</v>
       </c>
       <c r="K4">
-        <v>1.051190853804473</v>
+        <v>1.043944457830306</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.050089000700849</v>
+        <v>1.013756682600526</v>
       </c>
       <c r="N4">
-        <v>1.053734223758783</v>
+        <v>1.04219380694205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.048133864169676</v>
+        <v>1.023723655341703</v>
       </c>
       <c r="D5">
-        <v>1.049026503752941</v>
+        <v>1.035693989374793</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.048173480392591</v>
+        <v>1.006276516073175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042408103201223</v>
+        <v>1.049750054238132</v>
       </c>
       <c r="J5">
-        <v>1.052512393994282</v>
+        <v>1.042100039644469</v>
       </c>
       <c r="K5">
-        <v>1.051426898441041</v>
+        <v>1.045165598207018</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.050575931016366</v>
+        <v>1.016077059967761</v>
       </c>
       <c r="N5">
-        <v>1.054007082318613</v>
+        <v>1.04357994123131</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C6">
-        <v>1.048195816562565</v>
+        <v>1.024035389907658</v>
       </c>
       <c r="D6">
-        <v>1.049074803061212</v>
+        <v>1.035936176995155</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.048264010087945</v>
+        <v>1.006705846188524</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042427167212126</v>
+        <v>1.04986479996476</v>
       </c>
       <c r="J6">
-        <v>1.052558106278151</v>
+        <v>1.042330846424703</v>
       </c>
       <c r="K6">
-        <v>1.051466495931888</v>
+        <v>1.045369204190828</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.050657649517191</v>
+        <v>1.016464049793401</v>
       </c>
       <c r="N6">
-        <v>1.054052859519169</v>
+        <v>1.043811075783646</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.047769642871539</v>
+        <v>1.021880270584087</v>
       </c>
       <c r="D7">
-        <v>1.048742530449616</v>
+        <v>1.034261962583533</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.047641315173543</v>
+        <v>1.003737323736388</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042295892503312</v>
+        <v>1.049070426803535</v>
       </c>
       <c r="J7">
-        <v>1.052243565631826</v>
+        <v>1.040734474650654</v>
       </c>
       <c r="K7">
-        <v>1.05119401022334</v>
+        <v>1.043960871378167</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.050095509727894</v>
+        <v>1.013787864486352</v>
       </c>
       <c r="N7">
-        <v>1.053737872189047</v>
+        <v>1.042212436978571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045983829999774</v>
+        <v>1.012569003945279</v>
       </c>
       <c r="D8">
-        <v>1.047349722124808</v>
+        <v>1.027031722145866</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.045033562046783</v>
+        <v>0.9908975877939159</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041742505968483</v>
+        <v>1.0456106220446</v>
       </c>
       <c r="J8">
-        <v>1.050923450603902</v>
+        <v>1.033818784069739</v>
       </c>
       <c r="K8">
-        <v>1.050049896335301</v>
+        <v>1.037857569617783</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.047740072672029</v>
+        <v>1.002202285264778</v>
       </c>
       <c r="N8">
-        <v>1.052415882446364</v>
+        <v>1.03528692532379</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.042819557270246</v>
+        <v>0.9948547101422107</v>
       </c>
       <c r="D9">
-        <v>1.044880081492271</v>
+        <v>1.013295694391709</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419923921</v>
       </c>
       <c r="F9">
-        <v>1.040418427378897</v>
+        <v>0.9663776811011827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040749516501381</v>
+        <v>1.038923173378632</v>
       </c>
       <c r="J9">
-        <v>1.048576483126335</v>
+        <v>1.020590479415942</v>
       </c>
       <c r="K9">
-        <v>1.048013960838179</v>
+        <v>1.026176679392303</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208832515</v>
       </c>
       <c r="M9">
-        <v>1.043566658727125</v>
+        <v>0.9800408758985096</v>
       </c>
       <c r="N9">
-        <v>1.050065582005778</v>
+        <v>1.022039834960077</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.040697776798541</v>
+        <v>0.9819818975724454</v>
       </c>
       <c r="D10">
-        <v>1.043222968567604</v>
+        <v>1.00333405339114</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547276</v>
       </c>
       <c r="F10">
-        <v>1.037327197545815</v>
+        <v>0.948450936395142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04007532011024</v>
+        <v>1.033994046713985</v>
       </c>
       <c r="J10">
-        <v>1.046997454677648</v>
+        <v>1.010929091651238</v>
       </c>
       <c r="K10">
-        <v>1.046642957282836</v>
+        <v>1.017643370275469</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689353</v>
       </c>
       <c r="M10">
-        <v>1.040768060892111</v>
+        <v>0.9638177731340652</v>
       </c>
       <c r="N10">
-        <v>1.048484311155577</v>
+        <v>1.012364726916571</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.039775992458743</v>
+        <v>0.9761051758012754</v>
       </c>
       <c r="D11">
-        <v>1.042502801128097</v>
+        <v>0.9987929661947833</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016261</v>
       </c>
       <c r="F11">
-        <v>1.035984989676868</v>
+        <v>0.9402285035429763</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039780445825944</v>
+        <v>1.031727905835668</v>
       </c>
       <c r="J11">
-        <v>1.046310210084931</v>
+        <v>1.006506937118188</v>
       </c>
       <c r="K11">
-        <v>1.046045963945716</v>
+        <v>1.013737681360591</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416576</v>
       </c>
       <c r="M11">
-        <v>1.039552148878867</v>
+        <v>0.9563730817634361</v>
       </c>
       <c r="N11">
-        <v>1.04779609059671</v>
+        <v>1.007936292416855</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.039433133559911</v>
+        <v>0.9738716470372336</v>
       </c>
       <c r="D12">
-        <v>1.042234896847177</v>
+        <v>0.9970682334592975</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411973</v>
       </c>
       <c r="F12">
-        <v>1.035485859676985</v>
+        <v>0.9370963386650182</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039670470284591</v>
+        <v>1.030864297497786</v>
       </c>
       <c r="J12">
-        <v>1.046054400372432</v>
+        <v>1.004824500050629</v>
       </c>
       <c r="K12">
-        <v>1.045823705188535</v>
+        <v>1.012251817860531</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>1.039099870159579</v>
+        <v>0.9535367633971601</v>
       </c>
       <c r="N12">
-        <v>1.047539917605078</v>
+        <v>1.006251466095682</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.039506699267289</v>
+        <v>0.9743531313429105</v>
       </c>
       <c r="D13">
-        <v>1.042292381537395</v>
+        <v>0.9974399802577519</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.035592951074982</v>
+        <v>0.93777188806066</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039694080663026</v>
+        <v>1.031050570680731</v>
       </c>
       <c r="J13">
-        <v>1.046109296836516</v>
+        <v>1.005187263395229</v>
       </c>
       <c r="K13">
-        <v>1.045871403587703</v>
+        <v>1.012572191720508</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.039196914512514</v>
+        <v>0.9541485206693699</v>
       </c>
       <c r="N13">
-        <v>1.047594892028437</v>
+        <v>1.00661474460584</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.039747661226231</v>
+        <v>0.975921617957258</v>
       </c>
       <c r="D14">
-        <v>1.042480664321101</v>
+        <v>0.9986511979157505</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.035943743269652</v>
+        <v>0.9399712458548708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039771364336944</v>
+        <v>1.031656978861514</v>
       </c>
       <c r="J14">
-        <v>1.046289075767101</v>
+        <v>1.00636870480542</v>
       </c>
       <c r="K14">
-        <v>1.046027602389225</v>
+        <v>1.01361559789381</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.039514776439135</v>
+        <v>0.9561401307792481</v>
       </c>
       <c r="N14">
-        <v>1.047774926265725</v>
+        <v>1.007797863798347</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.039896063623031</v>
+        <v>0.976881132782399</v>
       </c>
       <c r="D15">
-        <v>1.042596618062403</v>
+        <v>0.9993923140331774</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050717477</v>
       </c>
       <c r="F15">
-        <v>1.036159801206095</v>
+        <v>0.9413157157537805</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03981892212629</v>
+        <v>1.032027642354631</v>
       </c>
       <c r="J15">
-        <v>1.046399772159005</v>
+        <v>1.007091218256351</v>
       </c>
       <c r="K15">
-        <v>1.046123773984868</v>
+        <v>1.014253708131901</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767195</v>
       </c>
       <c r="M15">
-        <v>1.039710536972634</v>
+        <v>0.9573575538625722</v>
       </c>
       <c r="N15">
-        <v>1.047885779859201</v>
+        <v>1.008521403301252</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.040758887657631</v>
+        <v>0.9823651161070596</v>
       </c>
       <c r="D16">
-        <v>1.043270707738627</v>
+        <v>1.003630326471251</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017262</v>
       </c>
       <c r="F16">
-        <v>1.037416196069566</v>
+        <v>0.9489862182114358</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040094827605239</v>
+        <v>1.034141497902822</v>
       </c>
       <c r="J16">
-        <v>1.047042990068766</v>
+        <v>1.011217220643556</v>
       </c>
       <c r="K16">
-        <v>1.046682506796385</v>
+        <v>1.017897856144541</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175719</v>
       </c>
       <c r="M16">
-        <v>1.0408486689731</v>
+        <v>0.9643023589548099</v>
       </c>
       <c r="N16">
-        <v>1.048529911212173</v>
+        <v>1.012653265085106</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.041299293256832</v>
+        <v>0.9857206366392904</v>
       </c>
       <c r="D17">
-        <v>1.04369283796149</v>
+        <v>1.00622530162733</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>1.038203298325264</v>
+        <v>0.9536687746844137</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040267105156239</v>
+        <v>1.035430825765296</v>
       </c>
       <c r="J17">
-        <v>1.047445516740084</v>
+        <v>1.01373882915526</v>
       </c>
       <c r="K17">
-        <v>1.047032086000965</v>
+        <v>1.020125052148802</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>1.041561478045885</v>
+        <v>0.9685410378495302</v>
       </c>
       <c r="N17">
-        <v>1.048933009517535</v>
+        <v>1.015178454570129</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.041614210159196</v>
+        <v>0.9876490390170073</v>
       </c>
       <c r="D18">
-        <v>1.043938806454663</v>
+        <v>1.007717228558357</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215681</v>
       </c>
       <c r="F18">
-        <v>1.038662047613236</v>
+        <v>0.9563563199883908</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040367308071248</v>
+        <v>1.036170308278809</v>
       </c>
       <c r="J18">
-        <v>1.04767996517772</v>
+        <v>1.015186910382439</v>
       </c>
       <c r="K18">
-        <v>1.047235667882721</v>
+        <v>1.021404069038947</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865724</v>
       </c>
       <c r="M18">
-        <v>1.04197685314038</v>
+        <v>0.9709734691938817</v>
       </c>
       <c r="N18">
-        <v>1.049167790898844</v>
+        <v>1.016628592238748</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.041721539381037</v>
+        <v>0.9883018302747704</v>
       </c>
       <c r="D19">
-        <v>1.044022632676784</v>
+        <v>1.008222364805034</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684961</v>
       </c>
       <c r="F19">
-        <v>1.038818409817154</v>
+        <v>0.9572655336922766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040401426680771</v>
+        <v>1.036420379415045</v>
       </c>
       <c r="J19">
-        <v>1.047759848863336</v>
+        <v>1.015676923786825</v>
       </c>
       <c r="K19">
-        <v>1.04730502968144</v>
+        <v>1.021836872699504</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816586</v>
       </c>
       <c r="M19">
-        <v>1.042118418985083</v>
+        <v>0.9717963131494703</v>
       </c>
       <c r="N19">
-        <v>1.049247788028456</v>
+        <v>1.017119301518373</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.041241343185282</v>
+        <v>0.9853636362948999</v>
       </c>
       <c r="D20">
-        <v>1.043647573598273</v>
+        <v>1.005949152919105</v>
       </c>
       <c r="E20">
-        <v>0.9894336180355766</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.038118886481553</v>
+        <v>0.9531709609715641</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040248650775101</v>
+        <v>1.035293806110246</v>
       </c>
       <c r="J20">
-        <v>1.047402364517272</v>
+        <v>1.013470662250715</v>
       </c>
       <c r="K20">
-        <v>1.046994612792471</v>
+        <v>1.019888194097596</v>
       </c>
       <c r="L20">
-        <v>0.9929783193490043</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.041485041306244</v>
+        <v>0.9680904495138171</v>
       </c>
       <c r="N20">
-        <v>1.048889796013617</v>
+        <v>1.014909906837821</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.039676716915874</v>
+        <v>0.9754611819441805</v>
       </c>
       <c r="D21">
-        <v>1.042425230892024</v>
+        <v>0.9982956061562793</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668255</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.035840459729954</v>
+        <v>0.9393258220529416</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039748618568041</v>
+        <v>1.031479028592624</v>
       </c>
       <c r="J21">
-        <v>1.04623615023011</v>
+        <v>1.00602193530964</v>
       </c>
       <c r="K21">
-        <v>1.045981619839452</v>
+        <v>1.013309340907115</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198107</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.03942119170128</v>
+        <v>0.9555556829088947</v>
       </c>
       <c r="N21">
-        <v>1.047721925568401</v>
+        <v>1.007450601850108</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.038690266187285</v>
+        <v>0.9689388100331063</v>
       </c>
       <c r="D22">
-        <v>1.04165436577123</v>
+        <v>0.9932614673025328</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241496</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.034404589677703</v>
+        <v>0.9301639525337845</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039431645454328</v>
+        <v>1.028952742173244</v>
       </c>
       <c r="J22">
-        <v>1.045499796932231</v>
+        <v>1.001105547281598</v>
       </c>
       <c r="K22">
-        <v>1.045341763339521</v>
+        <v>1.008967608300635</v>
       </c>
       <c r="L22">
-        <v>0.991467000034148</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.038119884992055</v>
+        <v>0.9472585696003316</v>
       </c>
       <c r="N22">
-        <v>1.046984526564377</v>
+        <v>1.002527231987149</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.039213462619263</v>
+        <v>0.9724264974476219</v>
       </c>
       <c r="D23">
-        <v>1.042063239286394</v>
+        <v>0.9959526412779488</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636459</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>1.035166094403414</v>
+        <v>0.9350675519594399</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039599925080307</v>
+        <v>1.030304871305209</v>
       </c>
       <c r="J23">
-        <v>1.04589044918861</v>
+        <v>1.00373542963254</v>
       </c>
       <c r="K23">
-        <v>1.045681245165664</v>
+        <v>1.011290024191312</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887607</v>
+        <v>0.9475391330285317</v>
       </c>
       <c r="M23">
-        <v>1.038810087685142</v>
+        <v>0.9516995054680402</v>
       </c>
       <c r="N23">
-        <v>1.047375733591769</v>
+        <v>1.005160849072681</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.041267529232196</v>
+        <v>0.9855250380533088</v>
       </c>
       <c r="D24">
-        <v>1.043668027397281</v>
+        <v>1.006073999348627</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347241</v>
+        <v>0.938164042401182</v>
       </c>
       <c r="F24">
-        <v>1.038157029654218</v>
+        <v>0.9533960359898851</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040256990392129</v>
+        <v>1.035355758058874</v>
       </c>
       <c r="J24">
-        <v>1.04742186419548</v>
+        <v>1.013591905282317</v>
       </c>
       <c r="K24">
-        <v>1.047011546316648</v>
+        <v>1.019995281820019</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766438</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.041519580997039</v>
+        <v>0.9682941737661368</v>
       </c>
       <c r="N24">
-        <v>1.048909323383604</v>
+        <v>1.015031322048434</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043639719675618</v>
+        <v>0.9996065927537238</v>
       </c>
       <c r="D25">
-        <v>1.045520398424685</v>
+        <v>1.016977522599934</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607046</v>
+        <v>0.9463835801718021</v>
       </c>
       <c r="F25">
-        <v>1.041614022510185</v>
+        <v>0.9729699393119899</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041008364143329</v>
+        <v>1.04072901186571</v>
       </c>
       <c r="J25">
-        <v>1.049185733980537</v>
+        <v>1.024147203878665</v>
       </c>
       <c r="K25">
-        <v>1.048542689370429</v>
+        <v>1.029317879595109</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426411</v>
+        <v>0.9598754494005834</v>
       </c>
       <c r="M25">
-        <v>1.044648391380145</v>
+        <v>0.986002874318097</v>
       </c>
       <c r="N25">
-        <v>1.050675698066075</v>
+        <v>1.025601610379498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010089181556301</v>
+        <v>1.009051147628222</v>
       </c>
       <c r="D2">
-        <v>1.025107163619352</v>
+        <v>1.031134526496194</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>1.02757309054017</v>
       </c>
       <c r="F2">
-        <v>0.9874732976617053</v>
+        <v>1.036679368411226</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044682200346112</v>
+        <v>1.052319735122666</v>
       </c>
       <c r="J2">
-        <v>1.031972258307627</v>
+        <v>1.030964470009619</v>
       </c>
       <c r="K2">
-        <v>1.036227455477068</v>
+        <v>1.042176501255932</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>1.038661202099219</v>
       </c>
       <c r="M2">
-        <v>0.9991099527337949</v>
+        <v>1.047650300443785</v>
       </c>
       <c r="N2">
-        <v>1.033437777283297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013896894030661</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.046284384215717</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.040892722157524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017327310699</v>
+        <v>1.013559643419087</v>
       </c>
       <c r="D3">
-        <v>1.030725855103567</v>
+        <v>1.034186293582764</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>1.030985038003624</v>
       </c>
       <c r="F3">
-        <v>0.9974622215456135</v>
+        <v>1.039907855344092</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047384073436136</v>
+        <v>1.05337930303187</v>
       </c>
       <c r="J3">
-        <v>1.037356508055072</v>
+        <v>1.033687362430735</v>
       </c>
       <c r="K3">
-        <v>1.04098012612719</v>
+        <v>1.044399670231945</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>1.041236234301594</v>
       </c>
       <c r="M3">
-        <v>1.008127677037346</v>
+        <v>1.05005435448266</v>
       </c>
       <c r="N3">
-        <v>1.038829673282964</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014836141944885</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048187014237888</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042462032254081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.021855168964994</v>
+        <v>1.016417806260694</v>
       </c>
       <c r="D4">
-        <v>1.034242463759801</v>
+        <v>1.036123383308965</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>1.033159770335074</v>
       </c>
       <c r="F4">
-        <v>1.003702741927973</v>
+        <v>1.04196309306522</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049061159409843</v>
+        <v>1.054037070466568</v>
       </c>
       <c r="J4">
-        <v>1.040715871033403</v>
+        <v>1.035410666658896</v>
       </c>
       <c r="K4">
-        <v>1.043944457830306</v>
+        <v>1.045804535445739</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>1.042873803758979</v>
       </c>
       <c r="M4">
-        <v>1.013756682600526</v>
+        <v>1.05158012567152</v>
       </c>
       <c r="N4">
-        <v>1.04219380694205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015430517063671</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049394546151978</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043456278001203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,81 +592,105 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.023723655341703</v>
+        <v>1.017609996151005</v>
       </c>
       <c r="D5">
-        <v>1.035693989374793</v>
+        <v>1.036933503784594</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>1.034069708715624</v>
       </c>
       <c r="F5">
-        <v>1.006276516073175</v>
+        <v>1.042822517268595</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049750054238132</v>
+        <v>1.054309344751641</v>
       </c>
       <c r="J5">
-        <v>1.042100039644469</v>
+        <v>1.036130361110863</v>
       </c>
       <c r="K5">
-        <v>1.045165598207018</v>
+        <v>1.046391755289426</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>1.043558880668577</v>
       </c>
       <c r="M5">
-        <v>1.016077059967761</v>
+        <v>1.052217838212731</v>
       </c>
       <c r="N5">
-        <v>1.04357994123131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015679672961582</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.049899246571546</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.043878622125503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024035389907658</v>
+        <v>1.017814598031742</v>
       </c>
       <c r="D6">
-        <v>1.035936176995155</v>
+        <v>1.037074510376254</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>1.034226112802292</v>
       </c>
       <c r="F6">
-        <v>1.006705846188524</v>
+        <v>1.042970314767233</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04986479996476</v>
+        <v>1.054357473595241</v>
       </c>
       <c r="J6">
-        <v>1.042330846424703</v>
+        <v>1.036255775895046</v>
       </c>
       <c r="K6">
-        <v>1.045369204190828</v>
+        <v>1.046495328514953</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>1.043677543005337</v>
       </c>
       <c r="M6">
-        <v>1.016464049793401</v>
+        <v>1.052328419893795</v>
       </c>
       <c r="N6">
-        <v>1.043811075783646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015724246544551</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049986763430713</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043960554895641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.021880270584087</v>
+        <v>1.016447826628656</v>
       </c>
       <c r="D7">
-        <v>1.034261962583533</v>
+        <v>1.03614897079114</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>1.033182943801861</v>
       </c>
       <c r="F7">
-        <v>1.003737323736388</v>
+        <v>1.041985226840218</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049070426803535</v>
+        <v>1.054048226414031</v>
       </c>
       <c r="J7">
-        <v>1.040734474650654</v>
+        <v>1.035434011794602</v>
       </c>
       <c r="K7">
-        <v>1.043960871378167</v>
+        <v>1.045826978266791</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>1.042893846482717</v>
       </c>
       <c r="M7">
-        <v>1.013787864486352</v>
+        <v>1.051599177637236</v>
       </c>
       <c r="N7">
-        <v>1.042212436978571</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015441755849659</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049409624322203</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043492158516096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012569003945279</v>
+        <v>1.01060493723381</v>
       </c>
       <c r="D8">
-        <v>1.027031722145866</v>
+        <v>1.032192079989733</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>1.028747130549637</v>
       </c>
       <c r="F8">
-        <v>0.9908975877939159</v>
+        <v>1.03779085753993</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0456106220446</v>
+        <v>1.052692929381654</v>
       </c>
       <c r="J8">
-        <v>1.033818784069739</v>
+        <v>1.031909922317813</v>
       </c>
       <c r="K8">
-        <v>1.037857569617783</v>
+        <v>1.042952954588741</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>1.039551289466921</v>
       </c>
       <c r="M8">
-        <v>1.002202285264778</v>
+        <v>1.048482149043566</v>
       </c>
       <c r="N8">
-        <v>1.03528692532379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014227200217459</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.046942731086333</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041464561279958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948547101422107</v>
+        <v>0.9998102774496915</v>
       </c>
       <c r="D9">
-        <v>1.013295694391709</v>
+        <v>1.024895829759552</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923921</v>
+        <v>1.02064791538428</v>
       </c>
       <c r="F9">
-        <v>0.9663776811011827</v>
+        <v>1.030112076733229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038923173378632</v>
+        <v>1.050073939760797</v>
       </c>
       <c r="J9">
-        <v>1.020590479415942</v>
+        <v>1.025369737088387</v>
       </c>
       <c r="K9">
-        <v>1.026176679392303</v>
+        <v>1.037597501954887</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832515</v>
+        <v>1.033414647270382</v>
       </c>
       <c r="M9">
-        <v>0.9800408758985096</v>
+        <v>1.042734793068071</v>
       </c>
       <c r="N9">
-        <v>1.022039834960077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011967382722674</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.042394110267813</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037674741710838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9819818975724454</v>
+        <v>0.9923373058277656</v>
       </c>
       <c r="D10">
-        <v>1.00333405339114</v>
+        <v>1.019884005280999</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547276</v>
+        <v>1.01517032605175</v>
       </c>
       <c r="F10">
-        <v>0.948450936395142</v>
+        <v>1.024917090750518</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033994046713985</v>
+        <v>1.048208992320268</v>
       </c>
       <c r="J10">
-        <v>1.010929091651238</v>
+        <v>1.020858278607596</v>
       </c>
       <c r="K10">
-        <v>1.017643370275469</v>
+        <v>1.033903294731358</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689353</v>
+        <v>1.029270973219778</v>
       </c>
       <c r="M10">
-        <v>0.9638177731340652</v>
+        <v>1.038850575773401</v>
       </c>
       <c r="N10">
-        <v>1.012364726916571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010422869781538</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039371396924778</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035079505377582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9761051758012754</v>
+        <v>0.9896204096902208</v>
       </c>
       <c r="D11">
-        <v>0.9987929661947833</v>
+        <v>1.018220438946553</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016261</v>
+        <v>1.013674813993997</v>
       </c>
       <c r="F11">
-        <v>0.9402285035429763</v>
+        <v>1.023591406292751</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031727905835668</v>
+        <v>1.047647249571548</v>
       </c>
       <c r="J11">
-        <v>1.006506937118188</v>
+        <v>1.019431458926411</v>
       </c>
       <c r="K11">
-        <v>1.013737681360591</v>
+        <v>1.032806734671425</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416576</v>
+        <v>1.028343370309442</v>
       </c>
       <c r="M11">
-        <v>0.9563730817634361</v>
+        <v>1.038081727284602</v>
       </c>
       <c r="N11">
-        <v>1.007936292416855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010047616650414</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039198786781783</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034337052794324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9738716470372336</v>
+        <v>0.9888119486086884</v>
       </c>
       <c r="D12">
-        <v>0.9970682334592975</v>
+        <v>1.017789261045746</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411973</v>
+        <v>1.013448408639265</v>
       </c>
       <c r="F12">
-        <v>0.9370963386650182</v>
+        <v>1.023443762208463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030864297497786</v>
+        <v>1.047531365120076</v>
       </c>
       <c r="J12">
-        <v>1.004824500050629</v>
+        <v>1.019097472156264</v>
       </c>
       <c r="K12">
-        <v>1.012251817860531</v>
+        <v>1.032583402520918</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>1.0283224155147</v>
       </c>
       <c r="M12">
-        <v>0.9535367633971601</v>
+        <v>1.038135189787579</v>
       </c>
       <c r="N12">
-        <v>1.006251466095682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010019695211797</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039567197479336</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034179149478011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9743531313429105</v>
+        <v>0.9894424298445745</v>
       </c>
       <c r="D13">
-        <v>0.9974399802577519</v>
+        <v>1.018300596550975</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>1.014202862195248</v>
       </c>
       <c r="F13">
-        <v>0.93777188806066</v>
+        <v>1.024217813341085</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031050570680731</v>
+        <v>1.047768066877394</v>
       </c>
       <c r="J13">
-        <v>1.005187263395229</v>
+        <v>1.019606141847229</v>
       </c>
       <c r="K13">
-        <v>1.012572191720508</v>
+        <v>1.033042502453215</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>1.029019786353916</v>
       </c>
       <c r="M13">
-        <v>0.9541485206693699</v>
+        <v>1.038852767328914</v>
       </c>
       <c r="N13">
-        <v>1.00661474460584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.01026954513271</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040410986322348</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034501254053296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.975921617957258</v>
+        <v>0.990534976538093</v>
       </c>
       <c r="D14">
-        <v>0.9986511979157505</v>
+        <v>1.019085469812951</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194313</v>
+        <v>1.015172463533965</v>
       </c>
       <c r="F14">
-        <v>0.9399712458548708</v>
+        <v>1.025175707907122</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031656978861514</v>
+        <v>1.048093157549466</v>
       </c>
       <c r="J14">
-        <v>1.00636870480542</v>
+        <v>1.020343107683656</v>
       </c>
       <c r="K14">
-        <v>1.01361559789381</v>
+        <v>1.033672728498092</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764514</v>
+        <v>1.029830412918533</v>
       </c>
       <c r="M14">
-        <v>0.9561401307792481</v>
+        <v>1.039654335483151</v>
       </c>
       <c r="N14">
-        <v>1.007797863798347</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01056988864455</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041217754034767</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034948270632329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.976881132782399</v>
+        <v>0.9911209432261739</v>
       </c>
       <c r="D15">
-        <v>0.9993923140331774</v>
+        <v>1.019490269681329</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717477</v>
+        <v>1.015634636488012</v>
       </c>
       <c r="F15">
-        <v>0.9413157157537805</v>
+        <v>1.025624125364615</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032027642354631</v>
+        <v>1.048253424156956</v>
       </c>
       <c r="J15">
-        <v>1.007091218256351</v>
+        <v>1.020714467850419</v>
       </c>
       <c r="K15">
-        <v>1.014253708131901</v>
+        <v>1.033983816084811</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767195</v>
+        <v>1.03019728477907</v>
       </c>
       <c r="M15">
-        <v>0.9573575538625722</v>
+        <v>1.040009126448646</v>
       </c>
       <c r="N15">
-        <v>1.008521403301252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01070780460958</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041535677234787</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035174092473802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9823651161070596</v>
+        <v>0.9941771595564458</v>
       </c>
       <c r="D16">
-        <v>1.003630326471251</v>
+        <v>1.021527662137165</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017262</v>
+        <v>1.017819541789919</v>
       </c>
       <c r="F16">
-        <v>0.9489862182114358</v>
+        <v>1.027705049785219</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034141497902822</v>
+        <v>1.049021928658507</v>
       </c>
       <c r="J16">
-        <v>1.011217220643556</v>
+        <v>1.022546189950696</v>
       </c>
       <c r="K16">
-        <v>1.017897856144541</v>
+        <v>1.03548324086103</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175719</v>
+        <v>1.031838588246846</v>
       </c>
       <c r="M16">
-        <v>0.9643023589548099</v>
+        <v>1.041556208220775</v>
       </c>
       <c r="N16">
-        <v>1.012653265085106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01132051592288</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042719825441327</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036237400574516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9857206366392904</v>
+        <v>0.9959493532685391</v>
       </c>
       <c r="D17">
-        <v>1.00622530162733</v>
+        <v>1.022679593056101</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>1.018988520273615</v>
       </c>
       <c r="F17">
-        <v>0.9536687746844137</v>
+        <v>1.0287960289014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035430825765296</v>
+        <v>1.049437395746274</v>
       </c>
       <c r="J17">
-        <v>1.01373882915526</v>
+        <v>1.023564086753076</v>
       </c>
       <c r="K17">
-        <v>1.020125052148802</v>
+        <v>1.036301318539112</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>1.032671606553239</v>
       </c>
       <c r="M17">
-        <v>0.9685410378495302</v>
+        <v>1.042317319577258</v>
       </c>
       <c r="N17">
-        <v>1.015178454570129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011633055409582</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043192608894654</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036818393902092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9876490390170073</v>
+        <v>0.996769259081744</v>
       </c>
       <c r="D18">
-        <v>1.007717228558357</v>
+        <v>1.023155208687128</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215681</v>
+        <v>1.019351941204267</v>
       </c>
       <c r="F18">
-        <v>0.9563563199883908</v>
+        <v>1.029092657087642</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036170308278809</v>
+        <v>1.049579316263464</v>
       </c>
       <c r="J18">
-        <v>1.015186910382439</v>
+        <v>1.023954877997719</v>
       </c>
       <c r="K18">
-        <v>1.021404069038947</v>
+        <v>1.036585874641687</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865724</v>
+        <v>1.032844791352099</v>
       </c>
       <c r="M18">
-        <v>0.9709734691938817</v>
+        <v>1.042427423047404</v>
       </c>
       <c r="N18">
-        <v>1.016628592238748</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011703704019555</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04304242737551</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037007956643553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9883018302747704</v>
+        <v>0.9967403547705563</v>
       </c>
       <c r="D19">
-        <v>1.008222364805034</v>
+        <v>1.023033126808397</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684961</v>
+        <v>1.018991420470795</v>
       </c>
       <c r="F19">
-        <v>0.9572655336922766</v>
+        <v>1.028675849438861</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036420379415045</v>
+        <v>1.049483579241285</v>
       </c>
       <c r="J19">
-        <v>1.015676923786825</v>
+        <v>1.023791724636359</v>
       </c>
       <c r="K19">
-        <v>1.021836872699504</v>
+        <v>1.036403302268988</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816586</v>
+        <v>1.032427365988505</v>
       </c>
       <c r="M19">
-        <v>0.9717963131494703</v>
+        <v>1.041955309906269</v>
       </c>
       <c r="N19">
-        <v>1.017119301518373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011568194552014</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042344328678048</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036885262177599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9853636362948999</v>
+        <v>0.9943159279734791</v>
       </c>
       <c r="D20">
-        <v>1.005949152919105</v>
+        <v>1.021222642021288</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>1.016621175804821</v>
       </c>
       <c r="F20">
-        <v>0.9531709609715641</v>
+        <v>1.026293771623332</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035293806110246</v>
+        <v>1.048717959629568</v>
       </c>
       <c r="J20">
-        <v>1.013470662250715</v>
+        <v>1.022067733233838</v>
       </c>
       <c r="K20">
-        <v>1.019888194097596</v>
+        <v>1.0349023069003</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>1.030377925312068</v>
       </c>
       <c r="M20">
-        <v>0.9680904495138171</v>
+        <v>1.039889513829614</v>
       </c>
       <c r="N20">
-        <v>1.014909906837821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010847071339245</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.040183068428204</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.03582792776502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9754611819441805</v>
+        <v>0.9885658999327419</v>
       </c>
       <c r="D21">
-        <v>0.9982956061562793</v>
+        <v>1.017342439230683</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>1.012340605232133</v>
       </c>
       <c r="F21">
-        <v>0.9393258220529416</v>
+        <v>1.022209072387448</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031479028592624</v>
+        <v>1.047232975916284</v>
       </c>
       <c r="J21">
-        <v>1.00602193530964</v>
+        <v>1.018549578862944</v>
       </c>
       <c r="K21">
-        <v>1.013309340907115</v>
+        <v>1.032002537696146</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>1.027091892989272</v>
       </c>
       <c r="M21">
-        <v>0.9555556829088947</v>
+        <v>1.036781558837573</v>
       </c>
       <c r="N21">
-        <v>1.007450601850108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009620905239804</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037682521484689</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.03378092478012</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9689388100331063</v>
+        <v>0.984886686326228</v>
       </c>
       <c r="D22">
-        <v>0.9932614673025328</v>
+        <v>1.014869781985186</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651161</v>
+        <v>1.009646463649945</v>
       </c>
       <c r="F22">
-        <v>0.9301639525337845</v>
+        <v>1.01964215230216</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028952742173244</v>
+        <v>1.046273738512305</v>
       </c>
       <c r="J22">
-        <v>1.001105547281598</v>
+        <v>1.016304854604154</v>
       </c>
       <c r="K22">
-        <v>1.008967608300635</v>
+        <v>1.030152311037626</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572517</v>
+        <v>1.02502921415104</v>
       </c>
       <c r="M22">
-        <v>0.9472585696003316</v>
+        <v>1.034834284969763</v>
       </c>
       <c r="N22">
-        <v>1.002527231987149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008841030442391</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036141377056401</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03245921042173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9724264974476219</v>
+        <v>0.9868322040056067</v>
       </c>
       <c r="D23">
-        <v>0.9959526412779488</v>
+        <v>1.016172394126043</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>1.011068154153765</v>
       </c>
       <c r="F23">
-        <v>0.9350675519594399</v>
+        <v>1.020997674932968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030304871305209</v>
+        <v>1.046778946659113</v>
       </c>
       <c r="J23">
-        <v>1.00373542963254</v>
+        <v>1.017487349748633</v>
       </c>
       <c r="K23">
-        <v>1.011290024191312</v>
+        <v>1.031124584567815</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285317</v>
+        <v>1.02611568327122</v>
       </c>
       <c r="M23">
-        <v>0.9516995054680402</v>
+        <v>1.035860878673858</v>
       </c>
       <c r="N23">
-        <v>1.005160849072681</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009248259013617</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036953861629596</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033136996580178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9855250380533088</v>
+        <v>0.9943313004198336</v>
       </c>
       <c r="D24">
-        <v>1.006073999348627</v>
+        <v>1.021211442329912</v>
       </c>
       <c r="E24">
-        <v>0.938164042401182</v>
+        <v>1.016584395222119</v>
       </c>
       <c r="F24">
-        <v>0.9533960359898851</v>
+        <v>1.026249536444468</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035355758058874</v>
+        <v>1.04870410527478</v>
       </c>
       <c r="J24">
-        <v>1.013591905282317</v>
+        <v>1.022049322126732</v>
       </c>
       <c r="K24">
-        <v>1.019995281820019</v>
+        <v>1.034876026600129</v>
       </c>
       <c r="L24">
-        <v>0.953371659644254</v>
+        <v>1.030326397965323</v>
       </c>
       <c r="M24">
-        <v>0.9682941737661368</v>
+        <v>1.039830845722809</v>
       </c>
       <c r="N24">
-        <v>1.015031322048434</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010825304194659</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.040095833017644</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035781939619111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9996065927537238</v>
+        <v>1.002683375303221</v>
       </c>
       <c r="D25">
-        <v>1.016977522599934</v>
+        <v>1.026842570910889</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718021</v>
+        <v>1.022793140200429</v>
       </c>
       <c r="F25">
-        <v>0.9729699393119899</v>
+        <v>1.032147974193387</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04072901186571</v>
+        <v>1.050789495758104</v>
       </c>
       <c r="J25">
-        <v>1.024147203878665</v>
+        <v>1.027120769401505</v>
       </c>
       <c r="K25">
-        <v>1.029317879595109</v>
+        <v>1.039038005989202</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005834</v>
+        <v>1.035047633854109</v>
       </c>
       <c r="M25">
-        <v>0.986002874318097</v>
+        <v>1.044266920984247</v>
       </c>
       <c r="N25">
-        <v>1.025601610379498</v>
+        <v>1.012578041663647</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.043606682600409</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038721803367875</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_60/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009051147628222</v>
+        <v>1.008239810467913</v>
       </c>
       <c r="D2">
-        <v>1.031134526496194</v>
+        <v>1.029875302683697</v>
       </c>
       <c r="E2">
-        <v>1.02757309054017</v>
+        <v>1.027033074889843</v>
       </c>
       <c r="F2">
-        <v>1.036679368411226</v>
+        <v>1.035896805983133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052319735122666</v>
+        <v>1.051680305301343</v>
       </c>
       <c r="J2">
-        <v>1.030964470009619</v>
+        <v>1.030176832623699</v>
       </c>
       <c r="K2">
-        <v>1.042176501255932</v>
+        <v>1.040933544489556</v>
       </c>
       <c r="L2">
-        <v>1.038661202099219</v>
+        <v>1.038128217093005</v>
       </c>
       <c r="M2">
-        <v>1.047650300443785</v>
+        <v>1.046877706931375</v>
       </c>
       <c r="N2">
-        <v>1.013896894030661</v>
+        <v>1.014997827321964</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.046284384215717</v>
+        <v>1.045672932853037</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040892722157524</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.04002259762669</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022878283227379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013559643419087</v>
+        <v>1.012463818668079</v>
       </c>
       <c r="D3">
-        <v>1.034186293582764</v>
+        <v>1.032641757994948</v>
       </c>
       <c r="E3">
-        <v>1.030985038003624</v>
+        <v>1.030281080617389</v>
       </c>
       <c r="F3">
-        <v>1.039907855344092</v>
+        <v>1.038927765450113</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05337930303187</v>
+        <v>1.052594175827987</v>
       </c>
       <c r="J3">
-        <v>1.033687362430735</v>
+        <v>1.032620379441194</v>
       </c>
       <c r="K3">
-        <v>1.044399670231945</v>
+        <v>1.042873345538299</v>
       </c>
       <c r="L3">
-        <v>1.041236234301594</v>
+        <v>1.040540632535327</v>
       </c>
       <c r="M3">
-        <v>1.05005435448266</v>
+        <v>1.049085655901232</v>
       </c>
       <c r="N3">
-        <v>1.014836141944885</v>
+        <v>1.015662850856977</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048187014237888</v>
+        <v>1.047420361926094</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042462032254081</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041391263526336</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023297668050004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016417806260694</v>
+        <v>1.015143836294186</v>
       </c>
       <c r="D4">
-        <v>1.036123383308965</v>
+        <v>1.034399307449764</v>
       </c>
       <c r="E4">
-        <v>1.033159770335074</v>
+        <v>1.032353338963143</v>
       </c>
       <c r="F4">
-        <v>1.04196309306522</v>
+        <v>1.040859016241412</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054037070466568</v>
+        <v>1.053160079517353</v>
       </c>
       <c r="J4">
-        <v>1.035410666658896</v>
+        <v>1.034167936906775</v>
       </c>
       <c r="K4">
-        <v>1.045804535445739</v>
+        <v>1.044099560017496</v>
       </c>
       <c r="L4">
-        <v>1.042873803758979</v>
+        <v>1.042076359948916</v>
       </c>
       <c r="M4">
-        <v>1.05158012567152</v>
+        <v>1.050488103797952</v>
       </c>
       <c r="N4">
-        <v>1.015430517063671</v>
+        <v>1.016084129680322</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049394546151978</v>
+        <v>1.04853029404914</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043456278001203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042259269579456</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023560307624086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.017609996151005</v>
+        <v>1.016262059372017</v>
       </c>
       <c r="D5">
-        <v>1.036933503784594</v>
+        <v>1.035134815369223</v>
       </c>
       <c r="E5">
-        <v>1.034069708715624</v>
+        <v>1.033220689530498</v>
       </c>
       <c r="F5">
-        <v>1.042822517268595</v>
+        <v>1.041666912435183</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054309344751641</v>
+        <v>1.053394135394802</v>
       </c>
       <c r="J5">
-        <v>1.036130361110863</v>
+        <v>1.034814481859677</v>
       </c>
       <c r="K5">
-        <v>1.046391755289426</v>
+        <v>1.044612462843534</v>
       </c>
       <c r="L5">
-        <v>1.043558880668577</v>
+        <v>1.042719068768429</v>
       </c>
       <c r="M5">
-        <v>1.052217838212731</v>
+        <v>1.051074513590133</v>
       </c>
       <c r="N5">
-        <v>1.015679672961582</v>
+        <v>1.016260810430318</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.049899246571546</v>
+        <v>1.048994392841211</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.043878622125503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042629777673006</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023670168833926</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.017814598031742</v>
+        <v>1.016453804213824</v>
       </c>
       <c r="D6">
-        <v>1.037074510376254</v>
+        <v>1.035263000542808</v>
       </c>
       <c r="E6">
-        <v>1.034226112802292</v>
+        <v>1.033369584284963</v>
       </c>
       <c r="F6">
-        <v>1.042970314767233</v>
+        <v>1.041805770047511</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054357473595241</v>
+        <v>1.053435695360822</v>
       </c>
       <c r="J6">
-        <v>1.036255775895046</v>
+        <v>1.034927177358544</v>
       </c>
       <c r="K6">
-        <v>1.046495328514953</v>
+        <v>1.044703263293999</v>
       </c>
       <c r="L6">
-        <v>1.043677543005337</v>
+        <v>1.042830260166121</v>
       </c>
       <c r="M6">
-        <v>1.052328419893795</v>
+        <v>1.051176193476203</v>
       </c>
       <c r="N6">
-        <v>1.015724246544551</v>
+        <v>1.016292402866026</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049986763430713</v>
+        <v>1.049074864715383</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043960554895641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042703549719135</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023690316374766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016447826628656</v>
+        <v>1.015182760611854</v>
       </c>
       <c r="D7">
-        <v>1.03614897079114</v>
+        <v>1.034430344355907</v>
       </c>
       <c r="E7">
-        <v>1.033182943801861</v>
+        <v>1.032380672757805</v>
       </c>
       <c r="F7">
-        <v>1.041985226840218</v>
+        <v>1.040885561153233</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054048226414031</v>
+        <v>1.053174003639728</v>
       </c>
       <c r="J7">
-        <v>1.035434011794602</v>
+        <v>1.034199953510809</v>
       </c>
       <c r="K7">
-        <v>1.045826978266791</v>
+        <v>1.044127384270463</v>
       </c>
       <c r="L7">
-        <v>1.042893846482717</v>
+        <v>1.04210051311735</v>
       </c>
       <c r="M7">
-        <v>1.051599177637236</v>
+        <v>1.050511514057056</v>
       </c>
       <c r="N7">
-        <v>1.015441755849659</v>
+        <v>1.016121758100961</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049409624322203</v>
+        <v>1.048548821495949</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043492158516096</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042300957957605</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023569225311953</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01060493723381</v>
+        <v>1.009729087007934</v>
       </c>
       <c r="D8">
-        <v>1.032192079989733</v>
+        <v>1.030856996596317</v>
       </c>
       <c r="E8">
-        <v>1.028747130549637</v>
+        <v>1.028167797152128</v>
       </c>
       <c r="F8">
-        <v>1.03779085753993</v>
+        <v>1.036958125050511</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052692929381654</v>
+        <v>1.052014740397191</v>
       </c>
       <c r="J8">
-        <v>1.031909922317813</v>
+        <v>1.031058784690675</v>
       </c>
       <c r="K8">
-        <v>1.042952954588741</v>
+        <v>1.041634603132807</v>
       </c>
       <c r="L8">
-        <v>1.039551289466921</v>
+        <v>1.038979270699372</v>
       </c>
       <c r="M8">
-        <v>1.048482149043566</v>
+        <v>1.047659706751976</v>
       </c>
       <c r="N8">
-        <v>1.014227200217459</v>
+        <v>1.01532215115264</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.046942731086333</v>
+        <v>1.046291828618754</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041464561279958</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040543394913753</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023035894526769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9998102774496915</v>
+        <v>0.9996356230540872</v>
       </c>
       <c r="D9">
-        <v>1.024895829759552</v>
+        <v>1.02425599055107</v>
       </c>
       <c r="E9">
-        <v>1.02064791538428</v>
+        <v>1.020474317951825</v>
       </c>
       <c r="F9">
-        <v>1.030112076733229</v>
+        <v>1.029763469920044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.050073939760797</v>
+        <v>1.049749684149222</v>
       </c>
       <c r="J9">
-        <v>1.025369737088387</v>
+        <v>1.025201254975115</v>
       </c>
       <c r="K9">
-        <v>1.037597501954887</v>
+        <v>1.036967418297449</v>
       </c>
       <c r="L9">
-        <v>1.033414647270382</v>
+        <v>1.033243723305964</v>
       </c>
       <c r="M9">
-        <v>1.042734793068071</v>
+        <v>1.042391431193563</v>
       </c>
       <c r="N9">
-        <v>1.011967382722674</v>
+        <v>1.013736510491822</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.042394110267813</v>
+        <v>1.042122363026634</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037674741710838</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037239959198915</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022011296570671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9923373058277656</v>
+        <v>0.9927072778045493</v>
       </c>
       <c r="D10">
-        <v>1.019884005280999</v>
+        <v>1.019762929542825</v>
       </c>
       <c r="E10">
-        <v>1.01517032605175</v>
+        <v>1.015307734891223</v>
       </c>
       <c r="F10">
-        <v>1.024917090750518</v>
+        <v>1.024934441814983</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.048208992320268</v>
+        <v>1.048147727948624</v>
       </c>
       <c r="J10">
-        <v>1.020858278607596</v>
+        <v>1.021213256088012</v>
       </c>
       <c r="K10">
-        <v>1.033903294731358</v>
+        <v>1.033784296585923</v>
       </c>
       <c r="L10">
-        <v>1.029270973219778</v>
+        <v>1.029405996559236</v>
       </c>
       <c r="M10">
-        <v>1.038850575773401</v>
+        <v>1.038867632916748</v>
       </c>
       <c r="N10">
-        <v>1.010422869781538</v>
+        <v>1.01278208126468</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039371396924778</v>
+        <v>1.039384895691411</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035079505377582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035007782276785</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021311865799018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9896204096902208</v>
+        <v>0.9902205624981306</v>
       </c>
       <c r="D11">
-        <v>1.018220438946553</v>
+        <v>1.018303521414679</v>
       </c>
       <c r="E11">
-        <v>1.013674813993997</v>
+        <v>1.013910375507501</v>
       </c>
       <c r="F11">
-        <v>1.023591406292751</v>
+        <v>1.02374754024059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047647249571548</v>
+        <v>1.047689262759331</v>
       </c>
       <c r="J11">
-        <v>1.019431458926411</v>
+        <v>1.020005913639373</v>
       </c>
       <c r="K11">
-        <v>1.032806734671425</v>
+        <v>1.032888322506266</v>
       </c>
       <c r="L11">
-        <v>1.028343370309442</v>
+        <v>1.028574645369074</v>
       </c>
       <c r="M11">
-        <v>1.038081727284602</v>
+        <v>1.038235090791576</v>
       </c>
       <c r="N11">
-        <v>1.010047616650414</v>
+        <v>1.012762979431704</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039198786781783</v>
+        <v>1.039320095468076</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034337052794324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034410366079533</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021174753927414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9888119486086884</v>
+        <v>0.9894723756657126</v>
       </c>
       <c r="D12">
-        <v>1.017789261045746</v>
+        <v>1.0179247717334</v>
       </c>
       <c r="E12">
-        <v>1.013448408639265</v>
+        <v>1.013691326444928</v>
       </c>
       <c r="F12">
-        <v>1.023443762208463</v>
+        <v>1.023630996786366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047531365120076</v>
+        <v>1.047599874806336</v>
       </c>
       <c r="J12">
-        <v>1.019097472156264</v>
+        <v>1.019729064264543</v>
       </c>
       <c r="K12">
-        <v>1.032583402520918</v>
+        <v>1.032716434283084</v>
       </c>
       <c r="L12">
-        <v>1.0283224155147</v>
+        <v>1.028560840430822</v>
       </c>
       <c r="M12">
-        <v>1.038135189787579</v>
+        <v>1.038319048482559</v>
       </c>
       <c r="N12">
-        <v>1.010019695211797</v>
+        <v>1.012845124352124</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039567197479336</v>
+        <v>1.039712578352217</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034179149478011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034288837916253</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021177069064429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9894424298445745</v>
+        <v>0.9900166477061486</v>
       </c>
       <c r="D13">
-        <v>1.018300596550975</v>
+        <v>1.018362363216816</v>
       </c>
       <c r="E13">
-        <v>1.014202862195248</v>
+        <v>1.014375931008604</v>
       </c>
       <c r="F13">
-        <v>1.024217813341085</v>
+        <v>1.024345939275273</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047768066877394</v>
+        <v>1.047799296082337</v>
       </c>
       <c r="J13">
-        <v>1.019606141847229</v>
+        <v>1.020155423054567</v>
       </c>
       <c r="K13">
-        <v>1.033042502453215</v>
+        <v>1.033103144351526</v>
       </c>
       <c r="L13">
-        <v>1.029019786353916</v>
+        <v>1.029189670781362</v>
       </c>
       <c r="M13">
-        <v>1.038852767328914</v>
+        <v>1.038978595179994</v>
       </c>
       <c r="N13">
-        <v>1.01026954513271</v>
+        <v>1.012980880189154</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040410986322348</v>
+        <v>1.04051045605252</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034501254053296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034559512797286</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02129314165773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.990534976538093</v>
+        <v>0.9909838042995646</v>
       </c>
       <c r="D14">
-        <v>1.019085469812951</v>
+        <v>1.0190396933833</v>
       </c>
       <c r="E14">
-        <v>1.015172463533965</v>
+        <v>1.015264653263967</v>
       </c>
       <c r="F14">
-        <v>1.025175707907122</v>
+        <v>1.025223187826708</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.048093157549466</v>
+        <v>1.048070008892304</v>
       </c>
       <c r="J14">
-        <v>1.020343107683656</v>
+        <v>1.020772735884839</v>
       </c>
       <c r="K14">
-        <v>1.033672728498092</v>
+        <v>1.033627774967784</v>
       </c>
       <c r="L14">
-        <v>1.029830412918533</v>
+        <v>1.02992092903472</v>
       </c>
       <c r="M14">
-        <v>1.039654335483151</v>
+        <v>1.039700975083476</v>
       </c>
       <c r="N14">
-        <v>1.01056988864455</v>
+        <v>1.013102150701296</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041217754034767</v>
+        <v>1.04125461871805</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034948270632329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034932000363949</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021426535345464</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9911209432261739</v>
+        <v>0.9915074243826947</v>
       </c>
       <c r="D15">
-        <v>1.019490269681329</v>
+        <v>1.019390795020147</v>
       </c>
       <c r="E15">
-        <v>1.015634636488012</v>
+        <v>1.015690856838168</v>
       </c>
       <c r="F15">
-        <v>1.025624125364615</v>
+        <v>1.025632419372984</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.048253424156956</v>
+        <v>1.048203115520091</v>
       </c>
       <c r="J15">
-        <v>1.020714467850419</v>
+        <v>1.021084566450502</v>
       </c>
       <c r="K15">
-        <v>1.033983816084811</v>
+        <v>1.033886115711402</v>
       </c>
       <c r="L15">
-        <v>1.03019728477907</v>
+        <v>1.0302524926311</v>
       </c>
       <c r="M15">
-        <v>1.040009126448646</v>
+        <v>1.040017274824123</v>
       </c>
       <c r="N15">
-        <v>1.01070780460958</v>
+        <v>1.013149731618508</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041535677234787</v>
+        <v>1.041542117672526</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035174092473802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035121094675302</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021487222550164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9941771595564458</v>
+        <v>0.9942707673904694</v>
       </c>
       <c r="D16">
-        <v>1.021527662137165</v>
+        <v>1.021171204963787</v>
       </c>
       <c r="E16">
-        <v>1.017819541789919</v>
+        <v>1.017723076758886</v>
       </c>
       <c r="F16">
-        <v>1.027705049785219</v>
+        <v>1.027530619580359</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049021928658507</v>
+        <v>1.048841542956515</v>
       </c>
       <c r="J16">
-        <v>1.022546189950696</v>
+        <v>1.022636034478315</v>
       </c>
       <c r="K16">
-        <v>1.03548324086103</v>
+        <v>1.035132858901496</v>
       </c>
       <c r="L16">
-        <v>1.031838588246846</v>
+        <v>1.031743782279324</v>
       </c>
       <c r="M16">
-        <v>1.041556208220775</v>
+        <v>1.041384704312737</v>
       </c>
       <c r="N16">
-        <v>1.01132051592288</v>
+        <v>1.013347187623674</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042719825441327</v>
+        <v>1.042584265659764</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036237400574516</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036006040328246</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021755574493904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9959493532685391</v>
+        <v>0.995897275491837</v>
       </c>
       <c r="D17">
-        <v>1.022679593056101</v>
+        <v>1.022190694401977</v>
       </c>
       <c r="E17">
-        <v>1.018988520273615</v>
+        <v>1.018821330329552</v>
       </c>
       <c r="F17">
-        <v>1.0287960289014</v>
+        <v>1.028529519619996</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049437395746274</v>
+        <v>1.049189893686061</v>
       </c>
       <c r="J17">
-        <v>1.023564086753076</v>
+        <v>1.023514033472931</v>
       </c>
       <c r="K17">
-        <v>1.036301318539112</v>
+        <v>1.035820514613797</v>
       </c>
       <c r="L17">
-        <v>1.032671606553239</v>
+        <v>1.0325072095556</v>
       </c>
       <c r="M17">
-        <v>1.042317319577258</v>
+        <v>1.042055154522504</v>
       </c>
       <c r="N17">
-        <v>1.011633055409582</v>
+        <v>1.013465477876635</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043192608894654</v>
+        <v>1.04298536827635</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036818393902092</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.036495064626864</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021892492319917</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.996769259081744</v>
+        <v>0.9966709160304993</v>
       </c>
       <c r="D18">
-        <v>1.023155208687128</v>
+        <v>1.022620448566178</v>
       </c>
       <c r="E18">
-        <v>1.019351941204267</v>
+        <v>1.019172720275332</v>
       </c>
       <c r="F18">
-        <v>1.029092657087642</v>
+        <v>1.02879738688226</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049579316263464</v>
+        <v>1.049308538661091</v>
       </c>
       <c r="J18">
-        <v>1.023954877997719</v>
+        <v>1.023860284801252</v>
       </c>
       <c r="K18">
-        <v>1.036585874641687</v>
+        <v>1.036059822050709</v>
       </c>
       <c r="L18">
-        <v>1.032844791352099</v>
+        <v>1.032668515447988</v>
       </c>
       <c r="M18">
-        <v>1.042427423047404</v>
+        <v>1.042136888417178</v>
       </c>
       <c r="N18">
-        <v>1.011703704019555</v>
+        <v>1.013477704091343</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04304242737551</v>
+        <v>1.042812712974202</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037007956643553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036651499376935</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021917888124621</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9967403547705563</v>
+        <v>0.9966760152513167</v>
       </c>
       <c r="D19">
-        <v>1.023033126808397</v>
+        <v>1.022525064167054</v>
       </c>
       <c r="E19">
-        <v>1.018991420470795</v>
+        <v>1.018849096489594</v>
       </c>
       <c r="F19">
-        <v>1.028675849438861</v>
+        <v>1.028404806507915</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049483579241285</v>
+        <v>1.049226303662065</v>
       </c>
       <c r="J19">
-        <v>1.023791724636359</v>
+        <v>1.02372982412688</v>
       </c>
       <c r="K19">
-        <v>1.036403302268988</v>
+        <v>1.035903470563445</v>
       </c>
       <c r="L19">
-        <v>1.032427365988505</v>
+        <v>1.032287370249031</v>
       </c>
       <c r="M19">
-        <v>1.041955309906269</v>
+        <v>1.041688595208448</v>
       </c>
       <c r="N19">
-        <v>1.011568194552014</v>
+        <v>1.013381472290837</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042344328678048</v>
+        <v>1.042133379131416</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036885262177599</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036547968900333</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02184635301376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9943159279734791</v>
+        <v>0.9945068009628646</v>
       </c>
       <c r="D20">
-        <v>1.021222642021288</v>
+        <v>1.020941679491952</v>
       </c>
       <c r="E20">
-        <v>1.016621175804821</v>
+        <v>1.016655225385772</v>
       </c>
       <c r="F20">
-        <v>1.026293771623332</v>
+        <v>1.026194897807329</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.048717959629568</v>
+        <v>1.048575736923619</v>
       </c>
       <c r="J20">
-        <v>1.022067733233838</v>
+        <v>1.022251130932794</v>
       </c>
       <c r="K20">
-        <v>1.0349023069003</v>
+        <v>1.034626025449373</v>
       </c>
       <c r="L20">
-        <v>1.030377925312068</v>
+        <v>1.030411401182848</v>
       </c>
       <c r="M20">
-        <v>1.039889513829614</v>
+        <v>1.039792266089344</v>
       </c>
       <c r="N20">
-        <v>1.010847071339245</v>
+        <v>1.012966021491931</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.040183068428204</v>
+        <v>1.040106107126215</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03582792776502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035649088344531</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021500286227118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9885658999327419</v>
+        <v>0.9893450542770708</v>
       </c>
       <c r="D21">
-        <v>1.017342439230683</v>
+        <v>1.017573964381591</v>
       </c>
       <c r="E21">
-        <v>1.012340605232133</v>
+        <v>1.012716613049767</v>
       </c>
       <c r="F21">
-        <v>1.022209072387448</v>
+        <v>1.02248612513655</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.047232975916284</v>
+        <v>1.047350042513459</v>
       </c>
       <c r="J21">
-        <v>1.018549578862944</v>
+        <v>1.019295109313128</v>
       </c>
       <c r="K21">
-        <v>1.032002537696146</v>
+        <v>1.032229870103485</v>
       </c>
       <c r="L21">
-        <v>1.027091892989272</v>
+        <v>1.027461004964968</v>
       </c>
       <c r="M21">
-        <v>1.036781558837573</v>
+        <v>1.037053656501943</v>
       </c>
       <c r="N21">
-        <v>1.009620905239804</v>
+        <v>1.012592955420858</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037682521484689</v>
+        <v>1.037897869356023</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.03378092478012</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033958498893087</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020972502374101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.984886686326228</v>
+        <v>0.9860413684371084</v>
       </c>
       <c r="D22">
-        <v>1.014869781985186</v>
+        <v>1.015428310763352</v>
       </c>
       <c r="E22">
-        <v>1.009646463649945</v>
+        <v>1.010243382542342</v>
       </c>
       <c r="F22">
-        <v>1.01964215230216</v>
+        <v>1.020159597267015</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046273738512305</v>
+        <v>1.046555951976371</v>
       </c>
       <c r="J22">
-        <v>1.016304854604154</v>
+        <v>1.017406685260783</v>
       </c>
       <c r="K22">
-        <v>1.030152311037626</v>
+        <v>1.030700202958221</v>
       </c>
       <c r="L22">
-        <v>1.02502921415104</v>
+        <v>1.02561461106588</v>
       </c>
       <c r="M22">
-        <v>1.034834284969763</v>
+        <v>1.035341995071821</v>
       </c>
       <c r="N22">
-        <v>1.008841030442391</v>
+        <v>1.012349025092123</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036141377056401</v>
+        <v>1.036543197896673</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03245921042173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032862147064002</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020635008105027</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9868322040056067</v>
+        <v>0.9877703021705835</v>
       </c>
       <c r="D23">
-        <v>1.016172394126043</v>
+        <v>1.016545718163907</v>
       </c>
       <c r="E23">
-        <v>1.011068154153765</v>
+        <v>1.011537968365503</v>
       </c>
       <c r="F23">
-        <v>1.020997674932968</v>
+        <v>1.021378254688818</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046778946659113</v>
+        <v>1.046967649305754</v>
       </c>
       <c r="J23">
-        <v>1.017487349748633</v>
+        <v>1.01838381888284</v>
       </c>
       <c r="K23">
-        <v>1.031124584567815</v>
+        <v>1.031490984532466</v>
       </c>
       <c r="L23">
-        <v>1.02611568327122</v>
+        <v>1.026576669632818</v>
       </c>
       <c r="M23">
-        <v>1.035860878673858</v>
+        <v>1.036234486448794</v>
       </c>
       <c r="N23">
-        <v>1.009248259013617</v>
+        <v>1.012427672662153</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036953861629596</v>
+        <v>1.037249548536517</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033136996580178</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033410666237119</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02080601041661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9943313004198336</v>
+        <v>0.9945260413140109</v>
       </c>
       <c r="D24">
-        <v>1.021211442329912</v>
+        <v>1.020932933219351</v>
       </c>
       <c r="E24">
-        <v>1.016584395222119</v>
+        <v>1.016624052018686</v>
       </c>
       <c r="F24">
-        <v>1.026249536444468</v>
+        <v>1.026153774056558</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.04870410527478</v>
+        <v>1.048563122224958</v>
       </c>
       <c r="J24">
-        <v>1.022049322126732</v>
+        <v>1.022236447352613</v>
       </c>
       <c r="K24">
-        <v>1.034876026600129</v>
+        <v>1.034602151862007</v>
       </c>
       <c r="L24">
-        <v>1.030326397965323</v>
+        <v>1.03036538737417</v>
       </c>
       <c r="M24">
-        <v>1.039830845722809</v>
+        <v>1.039736656393185</v>
       </c>
       <c r="N24">
-        <v>1.010825304194659</v>
+        <v>1.012948237602454</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.040095833017644</v>
+        <v>1.040021288432768</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035781939619111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035602133117338</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021486830877953</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.002683375303221</v>
+        <v>1.002304637778719</v>
       </c>
       <c r="D25">
-        <v>1.026842570910889</v>
+        <v>1.026006694711025</v>
       </c>
       <c r="E25">
-        <v>1.022793140200429</v>
+        <v>1.022501121469685</v>
       </c>
       <c r="F25">
-        <v>1.032147974193387</v>
+        <v>1.031660911703127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050789495758104</v>
+        <v>1.050365637241565</v>
       </c>
       <c r="J25">
-        <v>1.027120769401505</v>
+        <v>1.026754689816691</v>
       </c>
       <c r="K25">
-        <v>1.039038005989202</v>
+        <v>1.038214272131699</v>
       </c>
       <c r="L25">
-        <v>1.035047633854109</v>
+        <v>1.034759896999718</v>
       </c>
       <c r="M25">
-        <v>1.044266920984247</v>
+        <v>1.043786838974786</v>
       </c>
       <c r="N25">
-        <v>1.012578041663647</v>
+        <v>1.014129019383963</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.043606682600409</v>
+        <v>1.043226731407811</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038721803367875</v>
+        <v>1.038152897181105</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022289181767018</v>
       </c>
     </row>
   </sheetData>
